--- a/GUI + Reviews/202504/Developed Market.xlsx
+++ b/GUI + Reviews/202504/Developed Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202503\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202504/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0EBC4F-87FA-4880-ABDF-10E9D1B9D9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FF0EBC4F-87FA-4880-ABDF-10E9D1B9D9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE207F1-2057-4C7B-B5C8-B650127E33B1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15840" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10262,9 +10262,6 @@
     <t>ROCKWOOL B</t>
   </si>
   <si>
-    <t>DK0010219153</t>
-  </si>
-  <si>
     <t>6963-JP</t>
   </si>
   <si>
@@ -14106,6 +14103,9 @@
   </si>
   <si>
     <t>CH0011075394</t>
+  </si>
+  <si>
+    <t>DK0063855168</t>
   </si>
 </sst>
 </file>
@@ -14714,8 +14714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBDFA6-8ACF-46B1-986C-8B78F48A2240}">
   <dimension ref="A1:K1547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="D492" sqref="D492"/>
+    <sheetView tabSelected="1" topLeftCell="A1101" workbookViewId="0">
+      <selection activeCell="G1120" sqref="G1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53909,16 +53909,16 @@
         <v>3407</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>3408</v>
+        <v>4689</v>
       </c>
       <c r="E1120" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F1120" s="1">
-        <v>11754106</v>
+        <v>117541060</v>
       </c>
       <c r="G1120" s="1">
-        <v>375.32420000000002</v>
+        <v>37.532420000000002</v>
       </c>
       <c r="H1120" s="1" t="s">
         <v>233</v>
@@ -53938,13 +53938,13 @@
         <v>1120</v>
       </c>
       <c r="B1121" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C1121" s="1" t="s">
         <v>3409</v>
       </c>
-      <c r="C1121" s="1" t="s">
+      <c r="D1121" s="1" t="s">
         <v>3410</v>
-      </c>
-      <c r="D1121" s="1" t="s">
-        <v>3411</v>
       </c>
       <c r="E1121" s="1" t="s">
         <v>26</v>
@@ -53973,13 +53973,13 @@
         <v>1121</v>
       </c>
       <c r="B1122" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C1122" s="1" t="s">
         <v>3412</v>
       </c>
-      <c r="C1122" s="1" t="s">
+      <c r="D1122" s="1" t="s">
         <v>3413</v>
-      </c>
-      <c r="D1122" s="1" t="s">
-        <v>3414</v>
       </c>
       <c r="E1122" s="1" t="s">
         <v>26</v>
@@ -54008,13 +54008,13 @@
         <v>1122</v>
       </c>
       <c r="B1123" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C1123" s="1" t="s">
         <v>3415</v>
       </c>
-      <c r="C1123" s="1" t="s">
+      <c r="D1123" s="1" t="s">
         <v>3416</v>
-      </c>
-      <c r="D1123" s="1" t="s">
-        <v>3417</v>
       </c>
       <c r="E1123" s="1" t="s">
         <v>14</v>
@@ -54043,13 +54043,13 @@
         <v>1123</v>
       </c>
       <c r="B1124" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C1124" s="1" t="s">
         <v>3418</v>
       </c>
-      <c r="C1124" s="1" t="s">
+      <c r="D1124" s="1" t="s">
         <v>3419</v>
-      </c>
-      <c r="D1124" s="1" t="s">
-        <v>3420</v>
       </c>
       <c r="E1124" s="1" t="s">
         <v>115</v>
@@ -54078,13 +54078,13 @@
         <v>1124</v>
       </c>
       <c r="B1125" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C1125" s="1" t="s">
         <v>3421</v>
       </c>
-      <c r="C1125" s="1" t="s">
+      <c r="D1125" s="1" t="s">
         <v>3422</v>
-      </c>
-      <c r="D1125" s="1" t="s">
-        <v>3423</v>
       </c>
       <c r="E1125" s="1" t="s">
         <v>115</v>
@@ -54113,13 +54113,13 @@
         <v>1125</v>
       </c>
       <c r="B1126" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C1126" s="1" t="s">
         <v>3424</v>
       </c>
-      <c r="C1126" s="1" t="s">
+      <c r="D1126" s="1" t="s">
         <v>3425</v>
-      </c>
-      <c r="D1126" s="1" t="s">
-        <v>3426</v>
       </c>
       <c r="E1126" s="1" t="s">
         <v>14</v>
@@ -54148,13 +54148,13 @@
         <v>1126</v>
       </c>
       <c r="B1127" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C1127" s="1" t="s">
         <v>3427</v>
       </c>
-      <c r="C1127" s="1" t="s">
+      <c r="D1127" s="1" t="s">
         <v>3428</v>
-      </c>
-      <c r="D1127" s="1" t="s">
-        <v>3429</v>
       </c>
       <c r="E1127" s="1" t="s">
         <v>164</v>
@@ -54183,13 +54183,13 @@
         <v>1127</v>
       </c>
       <c r="B1128" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C1128" s="1" t="s">
         <v>3430</v>
       </c>
-      <c r="C1128" s="1" t="s">
+      <c r="D1128" s="1" t="s">
         <v>3431</v>
-      </c>
-      <c r="D1128" s="1" t="s">
-        <v>3432</v>
       </c>
       <c r="E1128" s="1" t="s">
         <v>20</v>
@@ -54218,13 +54218,13 @@
         <v>1128</v>
       </c>
       <c r="B1129" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1129" s="1" t="s">
         <v>3433</v>
       </c>
-      <c r="C1129" s="1" t="s">
+      <c r="D1129" s="1" t="s">
         <v>3434</v>
-      </c>
-      <c r="D1129" s="1" t="s">
-        <v>3435</v>
       </c>
       <c r="E1129" s="1" t="s">
         <v>232</v>
@@ -54253,13 +54253,13 @@
         <v>1129</v>
       </c>
       <c r="B1130" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C1130" s="1" t="s">
         <v>3436</v>
       </c>
-      <c r="C1130" s="1" t="s">
+      <c r="D1130" s="1" t="s">
         <v>3437</v>
-      </c>
-      <c r="D1130" s="1" t="s">
-        <v>3438</v>
       </c>
       <c r="E1130" s="1" t="s">
         <v>14</v>
@@ -54288,13 +54288,13 @@
         <v>1130</v>
       </c>
       <c r="B1131" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C1131" s="1" t="s">
         <v>3439</v>
       </c>
-      <c r="C1131" s="1" t="s">
+      <c r="D1131" s="1" t="s">
         <v>3440</v>
-      </c>
-      <c r="D1131" s="1" t="s">
-        <v>3441</v>
       </c>
       <c r="E1131" s="1" t="s">
         <v>20</v>
@@ -54323,13 +54323,13 @@
         <v>1131</v>
       </c>
       <c r="B1132" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C1132" s="1" t="s">
         <v>3442</v>
       </c>
-      <c r="C1132" s="1" t="s">
+      <c r="D1132" s="1" t="s">
         <v>3443</v>
-      </c>
-      <c r="D1132" s="1" t="s">
-        <v>3444</v>
       </c>
       <c r="E1132" s="1" t="s">
         <v>92</v>
@@ -54358,13 +54358,13 @@
         <v>1132</v>
       </c>
       <c r="B1133" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C1133" s="1" t="s">
         <v>3445</v>
       </c>
-      <c r="C1133" s="1" t="s">
+      <c r="D1133" s="1" t="s">
         <v>3446</v>
-      </c>
-      <c r="D1133" s="1" t="s">
-        <v>3447</v>
       </c>
       <c r="E1133" s="1" t="s">
         <v>108</v>
@@ -54393,13 +54393,13 @@
         <v>1133</v>
       </c>
       <c r="B1134" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C1134" s="1" t="s">
         <v>3448</v>
       </c>
-      <c r="C1134" s="1" t="s">
+      <c r="D1134" s="1" t="s">
         <v>3449</v>
-      </c>
-      <c r="D1134" s="1" t="s">
-        <v>3450</v>
       </c>
       <c r="E1134" s="1" t="s">
         <v>175</v>
@@ -54428,13 +54428,13 @@
         <v>1134</v>
       </c>
       <c r="B1135" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C1135" s="1" t="s">
         <v>3451</v>
       </c>
-      <c r="C1135" s="1" t="s">
+      <c r="D1135" s="1" t="s">
         <v>3452</v>
-      </c>
-      <c r="D1135" s="1" t="s">
-        <v>3453</v>
       </c>
       <c r="E1135" s="1" t="s">
         <v>26</v>
@@ -54463,13 +54463,13 @@
         <v>1135</v>
       </c>
       <c r="B1136" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C1136" s="1" t="s">
         <v>3454</v>
       </c>
-      <c r="C1136" s="1" t="s">
+      <c r="D1136" s="1" t="s">
         <v>3455</v>
-      </c>
-      <c r="D1136" s="1" t="s">
-        <v>3456</v>
       </c>
       <c r="E1136" s="1" t="s">
         <v>20</v>
@@ -54498,13 +54498,13 @@
         <v>1136</v>
       </c>
       <c r="B1137" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C1137" s="1" t="s">
         <v>3457</v>
       </c>
-      <c r="C1137" s="1" t="s">
+      <c r="D1137" s="1" t="s">
         <v>3458</v>
-      </c>
-      <c r="D1137" s="1" t="s">
-        <v>3459</v>
       </c>
       <c r="E1137" s="1" t="s">
         <v>92</v>
@@ -54533,13 +54533,13 @@
         <v>1137</v>
       </c>
       <c r="B1138" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C1138" s="1" t="s">
         <v>3460</v>
       </c>
-      <c r="C1138" s="1" t="s">
+      <c r="D1138" s="1" t="s">
         <v>3461</v>
-      </c>
-      <c r="D1138" s="1" t="s">
-        <v>3462</v>
       </c>
       <c r="E1138" s="1" t="s">
         <v>48</v>
@@ -54568,13 +54568,13 @@
         <v>1138</v>
       </c>
       <c r="B1139" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C1139" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="C1139" s="1" t="s">
+      <c r="D1139" s="1" t="s">
         <v>3464</v>
-      </c>
-      <c r="D1139" s="1" t="s">
-        <v>3465</v>
       </c>
       <c r="E1139" s="1" t="s">
         <v>92</v>
@@ -54603,13 +54603,13 @@
         <v>1139</v>
       </c>
       <c r="B1140" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C1140" s="1" t="s">
         <v>3466</v>
       </c>
-      <c r="C1140" s="1" t="s">
+      <c r="D1140" s="1" t="s">
         <v>3467</v>
-      </c>
-      <c r="D1140" s="1" t="s">
-        <v>3468</v>
       </c>
       <c r="E1140" s="1" t="s">
         <v>14</v>
@@ -54638,13 +54638,13 @@
         <v>1140</v>
       </c>
       <c r="B1141" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1141" s="1" t="s">
         <v>3469</v>
       </c>
-      <c r="C1141" s="1" t="s">
+      <c r="D1141" s="1" t="s">
         <v>3470</v>
-      </c>
-      <c r="D1141" s="1" t="s">
-        <v>3471</v>
       </c>
       <c r="E1141" s="1" t="s">
         <v>92</v>
@@ -54673,13 +54673,13 @@
         <v>1141</v>
       </c>
       <c r="B1142" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C1142" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="C1142" s="1" t="s">
+      <c r="D1142" s="1" t="s">
         <v>3473</v>
-      </c>
-      <c r="D1142" s="1" t="s">
-        <v>3474</v>
       </c>
       <c r="E1142" s="1" t="s">
         <v>37</v>
@@ -54708,13 +54708,13 @@
         <v>1142</v>
       </c>
       <c r="B1143" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C1143" s="1" t="s">
         <v>3475</v>
       </c>
-      <c r="C1143" s="1" t="s">
+      <c r="D1143" s="1" t="s">
         <v>3476</v>
-      </c>
-      <c r="D1143" s="1" t="s">
-        <v>3477</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>20</v>
@@ -54743,13 +54743,13 @@
         <v>1143</v>
       </c>
       <c r="B1144" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C1144" s="1" t="s">
         <v>3478</v>
       </c>
-      <c r="C1144" s="1" t="s">
+      <c r="D1144" s="1" t="s">
         <v>3479</v>
-      </c>
-      <c r="D1144" s="1" t="s">
-        <v>3480</v>
       </c>
       <c r="E1144" s="1" t="s">
         <v>200</v>
@@ -54778,13 +54778,13 @@
         <v>1144</v>
       </c>
       <c r="B1145" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C1145" s="1" t="s">
         <v>3481</v>
       </c>
-      <c r="C1145" s="1" t="s">
+      <c r="D1145" s="1" t="s">
         <v>3482</v>
-      </c>
-      <c r="D1145" s="1" t="s">
-        <v>3483</v>
       </c>
       <c r="E1145" s="1" t="s">
         <v>1362</v>
@@ -54813,13 +54813,13 @@
         <v>1145</v>
       </c>
       <c r="B1146" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1146" s="1" t="s">
         <v>3484</v>
       </c>
-      <c r="C1146" s="1" t="s">
+      <c r="D1146" s="1" t="s">
         <v>3485</v>
-      </c>
-      <c r="D1146" s="1" t="s">
-        <v>3486</v>
       </c>
       <c r="E1146" s="1" t="s">
         <v>43</v>
@@ -54848,13 +54848,13 @@
         <v>1146</v>
       </c>
       <c r="B1147" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1147" s="1" t="s">
         <v>3487</v>
       </c>
-      <c r="C1147" s="1" t="s">
+      <c r="D1147" s="1" t="s">
         <v>3488</v>
-      </c>
-      <c r="D1147" s="1" t="s">
-        <v>3489</v>
       </c>
       <c r="E1147" s="1" t="s">
         <v>32</v>
@@ -54883,13 +54883,13 @@
         <v>1147</v>
       </c>
       <c r="B1148" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C1148" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="C1148" s="1" t="s">
+      <c r="D1148" s="1" t="s">
         <v>3491</v>
-      </c>
-      <c r="D1148" s="1" t="s">
-        <v>3492</v>
       </c>
       <c r="E1148" s="1" t="s">
         <v>64</v>
@@ -54918,13 +54918,13 @@
         <v>1148</v>
       </c>
       <c r="B1149" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C1149" s="1" t="s">
         <v>3493</v>
       </c>
-      <c r="C1149" s="1" t="s">
+      <c r="D1149" s="1" t="s">
         <v>3494</v>
-      </c>
-      <c r="D1149" s="1" t="s">
-        <v>3495</v>
       </c>
       <c r="E1149" s="1" t="s">
         <v>43</v>
@@ -54953,13 +54953,13 @@
         <v>1149</v>
       </c>
       <c r="B1150" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C1150" s="1" t="s">
         <v>3496</v>
       </c>
-      <c r="C1150" s="1" t="s">
+      <c r="D1150" s="1" t="s">
         <v>3497</v>
-      </c>
-      <c r="D1150" s="1" t="s">
-        <v>3498</v>
       </c>
       <c r="E1150" s="1" t="s">
         <v>48</v>
@@ -54988,13 +54988,13 @@
         <v>1150</v>
       </c>
       <c r="B1151" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C1151" s="1" t="s">
         <v>3499</v>
       </c>
-      <c r="C1151" s="1" t="s">
+      <c r="D1151" s="1" t="s">
         <v>3500</v>
-      </c>
-      <c r="D1151" s="1" t="s">
-        <v>3501</v>
       </c>
       <c r="E1151" s="1" t="s">
         <v>26</v>
@@ -55023,13 +55023,13 @@
         <v>1151</v>
       </c>
       <c r="B1152" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C1152" s="1" t="s">
         <v>3502</v>
       </c>
-      <c r="C1152" s="1" t="s">
+      <c r="D1152" s="1" t="s">
         <v>3503</v>
-      </c>
-      <c r="D1152" s="1" t="s">
-        <v>3504</v>
       </c>
       <c r="E1152" s="1" t="s">
         <v>92</v>
@@ -55058,13 +55058,13 @@
         <v>1152</v>
       </c>
       <c r="B1153" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C1153" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="C1153" s="1" t="s">
+      <c r="D1153" s="1" t="s">
         <v>3506</v>
-      </c>
-      <c r="D1153" s="1" t="s">
-        <v>3507</v>
       </c>
       <c r="E1153" s="1" t="s">
         <v>26</v>
@@ -55093,13 +55093,13 @@
         <v>1153</v>
       </c>
       <c r="B1154" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C1154" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="C1154" s="1" t="s">
+      <c r="D1154" s="1" t="s">
         <v>3509</v>
-      </c>
-      <c r="D1154" s="1" t="s">
-        <v>3510</v>
       </c>
       <c r="E1154" s="1" t="s">
         <v>26</v>
@@ -55128,13 +55128,13 @@
         <v>1154</v>
       </c>
       <c r="B1155" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C1155" s="1" t="s">
         <v>3511</v>
       </c>
-      <c r="C1155" s="1" t="s">
+      <c r="D1155" s="1" t="s">
         <v>3512</v>
-      </c>
-      <c r="D1155" s="1" t="s">
-        <v>3513</v>
       </c>
       <c r="E1155" s="1" t="s">
         <v>32</v>
@@ -55163,13 +55163,13 @@
         <v>1155</v>
       </c>
       <c r="B1156" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C1156" s="1" t="s">
         <v>3514</v>
       </c>
-      <c r="C1156" s="1" t="s">
+      <c r="D1156" s="1" t="s">
         <v>3515</v>
-      </c>
-      <c r="D1156" s="1" t="s">
-        <v>3516</v>
       </c>
       <c r="E1156" s="1" t="s">
         <v>26</v>
@@ -55198,13 +55198,13 @@
         <v>1156</v>
       </c>
       <c r="B1157" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C1157" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="C1157" s="1" t="s">
+      <c r="D1157" s="1" t="s">
         <v>3518</v>
-      </c>
-      <c r="D1157" s="1" t="s">
-        <v>3519</v>
       </c>
       <c r="E1157" s="1" t="s">
         <v>108</v>
@@ -55233,13 +55233,13 @@
         <v>1157</v>
       </c>
       <c r="B1158" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C1158" s="1" t="s">
         <v>3520</v>
       </c>
-      <c r="C1158" s="1" t="s">
+      <c r="D1158" s="1" t="s">
         <v>3521</v>
-      </c>
-      <c r="D1158" s="1" t="s">
-        <v>3522</v>
       </c>
       <c r="E1158" s="1" t="s">
         <v>26</v>
@@ -55268,13 +55268,13 @@
         <v>1158</v>
       </c>
       <c r="B1159" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C1159" s="1" t="s">
         <v>3523</v>
       </c>
-      <c r="C1159" s="1" t="s">
+      <c r="D1159" s="1" t="s">
         <v>3524</v>
-      </c>
-      <c r="D1159" s="1" t="s">
-        <v>3525</v>
       </c>
       <c r="E1159" s="1" t="s">
         <v>108</v>
@@ -55303,13 +55303,13 @@
         <v>1159</v>
       </c>
       <c r="B1160" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C1160" s="1" t="s">
         <v>3526</v>
       </c>
-      <c r="C1160" s="1" t="s">
+      <c r="D1160" s="1" t="s">
         <v>3527</v>
-      </c>
-      <c r="D1160" s="1" t="s">
-        <v>3528</v>
       </c>
       <c r="E1160" s="1" t="s">
         <v>92</v>
@@ -55338,13 +55338,13 @@
         <v>1160</v>
       </c>
       <c r="B1161" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C1161" s="1" t="s">
         <v>3529</v>
       </c>
-      <c r="C1161" s="1" t="s">
+      <c r="D1161" s="1" t="s">
         <v>3530</v>
-      </c>
-      <c r="D1161" s="1" t="s">
-        <v>3531</v>
       </c>
       <c r="E1161" s="1" t="s">
         <v>781</v>
@@ -55373,13 +55373,13 @@
         <v>1161</v>
       </c>
       <c r="B1162" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C1162" s="1" t="s">
         <v>3532</v>
       </c>
-      <c r="C1162" s="1" t="s">
+      <c r="D1162" s="1" t="s">
         <v>3533</v>
-      </c>
-      <c r="D1162" s="1" t="s">
-        <v>3534</v>
       </c>
       <c r="E1162" s="1" t="s">
         <v>115</v>
@@ -55408,13 +55408,13 @@
         <v>1162</v>
       </c>
       <c r="B1163" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C1163" s="1" t="s">
         <v>3535</v>
       </c>
-      <c r="C1163" s="1" t="s">
+      <c r="D1163" s="1" t="s">
         <v>3536</v>
-      </c>
-      <c r="D1163" s="1" t="s">
-        <v>3537</v>
       </c>
       <c r="E1163" s="1" t="s">
         <v>26</v>
@@ -55443,13 +55443,13 @@
         <v>1163</v>
       </c>
       <c r="B1164" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C1164" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="C1164" s="1" t="s">
+      <c r="D1164" s="1" t="s">
         <v>3539</v>
-      </c>
-      <c r="D1164" s="1" t="s">
-        <v>3540</v>
       </c>
       <c r="E1164" s="1" t="s">
         <v>53</v>
@@ -55478,13 +55478,13 @@
         <v>1164</v>
       </c>
       <c r="B1165" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C1165" s="1" t="s">
         <v>3541</v>
       </c>
-      <c r="C1165" s="1" t="s">
+      <c r="D1165" s="1" t="s">
         <v>3542</v>
-      </c>
-      <c r="D1165" s="1" t="s">
-        <v>3543</v>
       </c>
       <c r="E1165" s="1" t="s">
         <v>32</v>
@@ -55513,13 +55513,13 @@
         <v>1165</v>
       </c>
       <c r="B1166" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C1166" s="1" t="s">
         <v>3544</v>
       </c>
-      <c r="C1166" s="1" t="s">
+      <c r="D1166" s="1" t="s">
         <v>3545</v>
-      </c>
-      <c r="D1166" s="1" t="s">
-        <v>3546</v>
       </c>
       <c r="E1166" s="1" t="s">
         <v>108</v>
@@ -55548,13 +55548,13 @@
         <v>1166</v>
       </c>
       <c r="B1167" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C1167" s="1" t="s">
         <v>3547</v>
       </c>
-      <c r="C1167" s="1" t="s">
+      <c r="D1167" s="1" t="s">
         <v>3548</v>
-      </c>
-      <c r="D1167" s="1" t="s">
-        <v>3549</v>
       </c>
       <c r="E1167" s="1" t="s">
         <v>64</v>
@@ -55583,13 +55583,13 @@
         <v>1167</v>
       </c>
       <c r="B1168" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1168" s="1" t="s">
         <v>3550</v>
       </c>
-      <c r="C1168" s="1" t="s">
+      <c r="D1168" s="1" t="s">
         <v>3551</v>
-      </c>
-      <c r="D1168" s="1" t="s">
-        <v>3552</v>
       </c>
       <c r="E1168" s="1" t="s">
         <v>20</v>
@@ -55618,13 +55618,13 @@
         <v>1168</v>
       </c>
       <c r="B1169" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C1169" s="1" t="s">
         <v>3553</v>
       </c>
-      <c r="C1169" s="1" t="s">
+      <c r="D1169" s="1" t="s">
         <v>3554</v>
-      </c>
-      <c r="D1169" s="1" t="s">
-        <v>3555</v>
       </c>
       <c r="E1169" s="1" t="s">
         <v>92</v>
@@ -55653,13 +55653,13 @@
         <v>1169</v>
       </c>
       <c r="B1170" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C1170" s="1" t="s">
         <v>3556</v>
       </c>
-      <c r="C1170" s="1" t="s">
+      <c r="D1170" s="1" t="s">
         <v>3557</v>
-      </c>
-      <c r="D1170" s="1" t="s">
-        <v>3558</v>
       </c>
       <c r="E1170" s="1" t="s">
         <v>14</v>
@@ -55688,13 +55688,13 @@
         <v>1170</v>
       </c>
       <c r="B1171" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C1171" s="1" t="s">
         <v>3559</v>
       </c>
-      <c r="C1171" s="1" t="s">
+      <c r="D1171" s="1" t="s">
         <v>3560</v>
-      </c>
-      <c r="D1171" s="1" t="s">
-        <v>3561</v>
       </c>
       <c r="E1171" s="1" t="s">
         <v>92</v>
@@ -55723,13 +55723,13 @@
         <v>1171</v>
       </c>
       <c r="B1172" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C1172" s="1" t="s">
         <v>3562</v>
       </c>
-      <c r="C1172" s="1" t="s">
+      <c r="D1172" s="1" t="s">
         <v>3563</v>
-      </c>
-      <c r="D1172" s="1" t="s">
-        <v>3564</v>
       </c>
       <c r="E1172" s="1" t="s">
         <v>108</v>
@@ -55758,13 +55758,13 @@
         <v>1172</v>
       </c>
       <c r="B1173" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1173" s="1" t="s">
         <v>3565</v>
       </c>
-      <c r="C1173" s="1" t="s">
+      <c r="D1173" s="1" t="s">
         <v>3566</v>
-      </c>
-      <c r="D1173" s="1" t="s">
-        <v>3567</v>
       </c>
       <c r="E1173" s="1" t="s">
         <v>26</v>
@@ -55793,13 +55793,13 @@
         <v>1173</v>
       </c>
       <c r="B1174" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C1174" s="1" t="s">
         <v>3568</v>
       </c>
-      <c r="C1174" s="1" t="s">
+      <c r="D1174" s="1" t="s">
         <v>3569</v>
-      </c>
-      <c r="D1174" s="1" t="s">
-        <v>3570</v>
       </c>
       <c r="E1174" s="1" t="s">
         <v>26</v>
@@ -55828,13 +55828,13 @@
         <v>1174</v>
       </c>
       <c r="B1175" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C1175" s="1" t="s">
         <v>3571</v>
       </c>
-      <c r="C1175" s="1" t="s">
+      <c r="D1175" s="1" t="s">
         <v>3572</v>
-      </c>
-      <c r="D1175" s="1" t="s">
-        <v>3573</v>
       </c>
       <c r="E1175" s="1" t="s">
         <v>115</v>
@@ -55863,13 +55863,13 @@
         <v>1175</v>
       </c>
       <c r="B1176" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C1176" s="1" t="s">
         <v>3574</v>
       </c>
-      <c r="C1176" s="1" t="s">
+      <c r="D1176" s="1" t="s">
         <v>3575</v>
-      </c>
-      <c r="D1176" s="1" t="s">
-        <v>3576</v>
       </c>
       <c r="E1176" s="1" t="s">
         <v>781</v>
@@ -55898,13 +55898,13 @@
         <v>1176</v>
       </c>
       <c r="B1177" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C1177" s="1" t="s">
         <v>3577</v>
       </c>
-      <c r="C1177" s="1" t="s">
+      <c r="D1177" s="1" t="s">
         <v>3578</v>
-      </c>
-      <c r="D1177" s="1" t="s">
-        <v>3579</v>
       </c>
       <c r="E1177" s="1" t="s">
         <v>26</v>
@@ -55933,13 +55933,13 @@
         <v>1177</v>
       </c>
       <c r="B1178" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C1178" s="1" t="s">
         <v>3580</v>
       </c>
-      <c r="C1178" s="1" t="s">
+      <c r="D1178" s="1" t="s">
         <v>3581</v>
-      </c>
-      <c r="D1178" s="1" t="s">
-        <v>3582</v>
       </c>
       <c r="E1178" s="1" t="s">
         <v>48</v>
@@ -55968,13 +55968,13 @@
         <v>1178</v>
       </c>
       <c r="B1179" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C1179" s="1" t="s">
         <v>3583</v>
       </c>
-      <c r="C1179" s="1" t="s">
+      <c r="D1179" s="1" t="s">
         <v>3584</v>
-      </c>
-      <c r="D1179" s="1" t="s">
-        <v>3585</v>
       </c>
       <c r="E1179" s="1" t="s">
         <v>48</v>
@@ -56003,13 +56003,13 @@
         <v>1179</v>
       </c>
       <c r="B1180" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C1180" s="1" t="s">
         <v>3586</v>
       </c>
-      <c r="C1180" s="1" t="s">
+      <c r="D1180" s="1" t="s">
         <v>3587</v>
-      </c>
-      <c r="D1180" s="1" t="s">
-        <v>3588</v>
       </c>
       <c r="E1180" s="1" t="s">
         <v>32</v>
@@ -56038,13 +56038,13 @@
         <v>1180</v>
       </c>
       <c r="B1181" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C1181" s="1" t="s">
         <v>3589</v>
       </c>
-      <c r="C1181" s="1" t="s">
+      <c r="D1181" s="1" t="s">
         <v>3590</v>
-      </c>
-      <c r="D1181" s="1" t="s">
-        <v>3591</v>
       </c>
       <c r="E1181" s="1" t="s">
         <v>26</v>
@@ -56073,13 +56073,13 @@
         <v>1181</v>
       </c>
       <c r="B1182" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C1182" s="1" t="s">
         <v>3592</v>
       </c>
-      <c r="C1182" s="1" t="s">
+      <c r="D1182" s="1" t="s">
         <v>3593</v>
-      </c>
-      <c r="D1182" s="1" t="s">
-        <v>3594</v>
       </c>
       <c r="E1182" s="1" t="s">
         <v>14</v>
@@ -56108,13 +56108,13 @@
         <v>1182</v>
       </c>
       <c r="B1183" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C1183" s="1" t="s">
         <v>3595</v>
       </c>
-      <c r="C1183" s="1" t="s">
+      <c r="D1183" s="1" t="s">
         <v>3596</v>
-      </c>
-      <c r="D1183" s="1" t="s">
-        <v>3597</v>
       </c>
       <c r="E1183" s="1" t="s">
         <v>26</v>
@@ -56143,13 +56143,13 @@
         <v>1183</v>
       </c>
       <c r="B1184" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C1184" s="1" t="s">
         <v>3598</v>
       </c>
-      <c r="C1184" s="1" t="s">
+      <c r="D1184" s="1" t="s">
         <v>3599</v>
-      </c>
-      <c r="D1184" s="1" t="s">
-        <v>3600</v>
       </c>
       <c r="E1184" s="1" t="s">
         <v>26</v>
@@ -56178,13 +56178,13 @@
         <v>1184</v>
       </c>
       <c r="B1185" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1185" s="1" t="s">
         <v>3601</v>
       </c>
-      <c r="C1185" s="1" t="s">
+      <c r="D1185" s="1" t="s">
         <v>3602</v>
-      </c>
-      <c r="D1185" s="1" t="s">
-        <v>3603</v>
       </c>
       <c r="E1185" s="1" t="s">
         <v>26</v>
@@ -56213,13 +56213,13 @@
         <v>1185</v>
       </c>
       <c r="B1186" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C1186" s="1" t="s">
         <v>3604</v>
       </c>
-      <c r="C1186" s="1" t="s">
+      <c r="D1186" s="1" t="s">
         <v>3605</v>
-      </c>
-      <c r="D1186" s="1" t="s">
-        <v>3606</v>
       </c>
       <c r="E1186" s="1" t="s">
         <v>26</v>
@@ -56248,13 +56248,13 @@
         <v>1186</v>
       </c>
       <c r="B1187" s="1" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C1187" s="1" t="s">
         <v>3607</v>
       </c>
-      <c r="C1187" s="1" t="s">
+      <c r="D1187" s="1" t="s">
         <v>3608</v>
-      </c>
-      <c r="D1187" s="1" t="s">
-        <v>3609</v>
       </c>
       <c r="E1187" s="1" t="s">
         <v>26</v>
@@ -56283,13 +56283,13 @@
         <v>1187</v>
       </c>
       <c r="B1188" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1188" s="1" t="s">
         <v>3610</v>
       </c>
-      <c r="C1188" s="1" t="s">
+      <c r="D1188" s="1" t="s">
         <v>3611</v>
-      </c>
-      <c r="D1188" s="1" t="s">
-        <v>3612</v>
       </c>
       <c r="E1188" s="1" t="s">
         <v>26</v>
@@ -56318,13 +56318,13 @@
         <v>1188</v>
       </c>
       <c r="B1189" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C1189" s="1" t="s">
         <v>3613</v>
       </c>
-      <c r="C1189" s="1" t="s">
+      <c r="D1189" s="1" t="s">
         <v>3614</v>
-      </c>
-      <c r="D1189" s="1" t="s">
-        <v>3615</v>
       </c>
       <c r="E1189" s="1" t="s">
         <v>781</v>
@@ -56353,13 +56353,13 @@
         <v>1189</v>
       </c>
       <c r="B1190" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C1190" s="1" t="s">
         <v>3616</v>
       </c>
-      <c r="C1190" s="1" t="s">
+      <c r="D1190" s="1" t="s">
         <v>3617</v>
-      </c>
-      <c r="D1190" s="1" t="s">
-        <v>3618</v>
       </c>
       <c r="E1190" s="1" t="s">
         <v>20</v>
@@ -56388,13 +56388,13 @@
         <v>1190</v>
       </c>
       <c r="B1191" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C1191" s="1" t="s">
         <v>3619</v>
       </c>
-      <c r="C1191" s="1" t="s">
+      <c r="D1191" s="1" t="s">
         <v>3620</v>
-      </c>
-      <c r="D1191" s="1" t="s">
-        <v>3621</v>
       </c>
       <c r="E1191" s="1" t="s">
         <v>20</v>
@@ -56423,13 +56423,13 @@
         <v>1191</v>
       </c>
       <c r="B1192" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C1192" s="1" t="s">
         <v>3622</v>
       </c>
-      <c r="C1192" s="1" t="s">
+      <c r="D1192" s="1" t="s">
         <v>3623</v>
-      </c>
-      <c r="D1192" s="1" t="s">
-        <v>3624</v>
       </c>
       <c r="E1192" s="1" t="s">
         <v>26</v>
@@ -56458,13 +56458,13 @@
         <v>1192</v>
       </c>
       <c r="B1193" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C1193" s="1" t="s">
         <v>3625</v>
       </c>
-      <c r="C1193" s="1" t="s">
+      <c r="D1193" s="1" t="s">
         <v>3626</v>
-      </c>
-      <c r="D1193" s="1" t="s">
-        <v>3627</v>
       </c>
       <c r="E1193" s="1" t="s">
         <v>14</v>
@@ -56493,13 +56493,13 @@
         <v>1193</v>
       </c>
       <c r="B1194" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C1194" s="1" t="s">
         <v>3628</v>
       </c>
-      <c r="C1194" s="1" t="s">
+      <c r="D1194" s="1" t="s">
         <v>3629</v>
-      </c>
-      <c r="D1194" s="1" t="s">
-        <v>3630</v>
       </c>
       <c r="E1194" s="1" t="s">
         <v>64</v>
@@ -56528,13 +56528,13 @@
         <v>1194</v>
       </c>
       <c r="B1195" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C1195" s="1" t="s">
         <v>3631</v>
       </c>
-      <c r="C1195" s="1" t="s">
+      <c r="D1195" s="1" t="s">
         <v>3632</v>
-      </c>
-      <c r="D1195" s="1" t="s">
-        <v>3633</v>
       </c>
       <c r="E1195" s="1" t="s">
         <v>26</v>
@@ -56563,13 +56563,13 @@
         <v>1195</v>
       </c>
       <c r="B1196" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C1196" s="1" t="s">
         <v>3634</v>
       </c>
-      <c r="C1196" s="1" t="s">
+      <c r="D1196" s="1" t="s">
         <v>3635</v>
-      </c>
-      <c r="D1196" s="1" t="s">
-        <v>3636</v>
       </c>
       <c r="E1196" s="1" t="s">
         <v>32</v>
@@ -56598,13 +56598,13 @@
         <v>1196</v>
       </c>
       <c r="B1197" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C1197" s="1" t="s">
         <v>3637</v>
       </c>
-      <c r="C1197" s="1" t="s">
+      <c r="D1197" s="1" t="s">
         <v>3638</v>
-      </c>
-      <c r="D1197" s="1" t="s">
-        <v>3639</v>
       </c>
       <c r="E1197" s="1" t="s">
         <v>64</v>
@@ -56633,13 +56633,13 @@
         <v>1197</v>
       </c>
       <c r="B1198" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C1198" s="1" t="s">
         <v>3640</v>
       </c>
-      <c r="C1198" s="1" t="s">
+      <c r="D1198" s="1" t="s">
         <v>3641</v>
-      </c>
-      <c r="D1198" s="1" t="s">
-        <v>3642</v>
       </c>
       <c r="E1198" s="1" t="s">
         <v>53</v>
@@ -56668,13 +56668,13 @@
         <v>1198</v>
       </c>
       <c r="B1199" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C1199" s="1" t="s">
         <v>3643</v>
       </c>
-      <c r="C1199" s="1" t="s">
+      <c r="D1199" s="1" t="s">
         <v>3644</v>
-      </c>
-      <c r="D1199" s="1" t="s">
-        <v>3645</v>
       </c>
       <c r="E1199" s="1" t="s">
         <v>43</v>
@@ -56703,13 +56703,13 @@
         <v>1199</v>
       </c>
       <c r="B1200" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C1200" s="1" t="s">
         <v>3646</v>
       </c>
-      <c r="C1200" s="1" t="s">
+      <c r="D1200" s="1" t="s">
         <v>3647</v>
-      </c>
-      <c r="D1200" s="1" t="s">
-        <v>3648</v>
       </c>
       <c r="E1200" s="1" t="s">
         <v>20</v>
@@ -56738,13 +56738,13 @@
         <v>1200</v>
       </c>
       <c r="B1201" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C1201" s="1" t="s">
         <v>3649</v>
       </c>
-      <c r="C1201" s="1" t="s">
+      <c r="D1201" s="1" t="s">
         <v>3650</v>
-      </c>
-      <c r="D1201" s="1" t="s">
-        <v>3651</v>
       </c>
       <c r="E1201" s="1" t="s">
         <v>26</v>
@@ -56773,13 +56773,13 @@
         <v>1201</v>
       </c>
       <c r="B1202" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1202" s="1" t="s">
         <v>3652</v>
       </c>
-      <c r="C1202" s="1" t="s">
+      <c r="D1202" s="1" t="s">
         <v>3653</v>
-      </c>
-      <c r="D1202" s="1" t="s">
-        <v>3654</v>
       </c>
       <c r="E1202" s="1" t="s">
         <v>26</v>
@@ -56808,13 +56808,13 @@
         <v>1202</v>
       </c>
       <c r="B1203" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C1203" s="1" t="s">
         <v>3655</v>
       </c>
-      <c r="C1203" s="1" t="s">
+      <c r="D1203" s="1" t="s">
         <v>3656</v>
-      </c>
-      <c r="D1203" s="1" t="s">
-        <v>3657</v>
       </c>
       <c r="E1203" s="1" t="s">
         <v>26</v>
@@ -56843,13 +56843,13 @@
         <v>1203</v>
       </c>
       <c r="B1204" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C1204" s="1" t="s">
         <v>3658</v>
       </c>
-      <c r="C1204" s="1" t="s">
+      <c r="D1204" s="1" t="s">
         <v>3659</v>
-      </c>
-      <c r="D1204" s="1" t="s">
-        <v>3660</v>
       </c>
       <c r="E1204" s="1" t="s">
         <v>26</v>
@@ -56878,13 +56878,13 @@
         <v>1204</v>
       </c>
       <c r="B1205" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C1205" s="1" t="s">
         <v>3661</v>
       </c>
-      <c r="C1205" s="1" t="s">
+      <c r="D1205" s="1" t="s">
         <v>3662</v>
-      </c>
-      <c r="D1205" s="1" t="s">
-        <v>3663</v>
       </c>
       <c r="E1205" s="1" t="s">
         <v>26</v>
@@ -56913,13 +56913,13 @@
         <v>1205</v>
       </c>
       <c r="B1206" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C1206" s="1" t="s">
         <v>3664</v>
       </c>
-      <c r="C1206" s="1" t="s">
+      <c r="D1206" s="1" t="s">
         <v>3665</v>
-      </c>
-      <c r="D1206" s="1" t="s">
-        <v>3666</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>26</v>
@@ -56948,13 +56948,13 @@
         <v>1206</v>
       </c>
       <c r="B1207" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C1207" s="1" t="s">
         <v>3667</v>
       </c>
-      <c r="C1207" s="1" t="s">
+      <c r="D1207" s="1" t="s">
         <v>3668</v>
-      </c>
-      <c r="D1207" s="1" t="s">
-        <v>3669</v>
       </c>
       <c r="E1207" s="1" t="s">
         <v>26</v>
@@ -56983,13 +56983,13 @@
         <v>1207</v>
       </c>
       <c r="B1208" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C1208" s="1" t="s">
         <v>3670</v>
       </c>
-      <c r="C1208" s="1" t="s">
+      <c r="D1208" s="1" t="s">
         <v>3671</v>
-      </c>
-      <c r="D1208" s="1" t="s">
-        <v>3672</v>
       </c>
       <c r="E1208" s="1" t="s">
         <v>26</v>
@@ -57018,13 +57018,13 @@
         <v>1208</v>
       </c>
       <c r="B1209" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C1209" s="1" t="s">
         <v>3673</v>
       </c>
-      <c r="C1209" s="1" t="s">
+      <c r="D1209" s="1" t="s">
         <v>3674</v>
-      </c>
-      <c r="D1209" s="1" t="s">
-        <v>3675</v>
       </c>
       <c r="E1209" s="1" t="s">
         <v>26</v>
@@ -57053,13 +57053,13 @@
         <v>1209</v>
       </c>
       <c r="B1210" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C1210" s="1" t="s">
         <v>3676</v>
       </c>
-      <c r="C1210" s="1" t="s">
+      <c r="D1210" s="1" t="s">
         <v>3677</v>
-      </c>
-      <c r="D1210" s="1" t="s">
-        <v>3678</v>
       </c>
       <c r="E1210" s="1" t="s">
         <v>20</v>
@@ -57088,13 +57088,13 @@
         <v>1210</v>
       </c>
       <c r="B1211" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C1211" s="1" t="s">
         <v>3679</v>
       </c>
-      <c r="C1211" s="1" t="s">
+      <c r="D1211" s="1" t="s">
         <v>3680</v>
-      </c>
-      <c r="D1211" s="1" t="s">
-        <v>3681</v>
       </c>
       <c r="E1211" s="1" t="s">
         <v>26</v>
@@ -57123,13 +57123,13 @@
         <v>1211</v>
       </c>
       <c r="B1212" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1212" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="C1212" s="1" t="s">
+      <c r="D1212" s="1" t="s">
         <v>3683</v>
-      </c>
-      <c r="D1212" s="1" t="s">
-        <v>3684</v>
       </c>
       <c r="E1212" s="1" t="s">
         <v>64</v>
@@ -57158,13 +57158,13 @@
         <v>1212</v>
       </c>
       <c r="B1213" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C1213" s="1" t="s">
         <v>3685</v>
       </c>
-      <c r="C1213" s="1" t="s">
+      <c r="D1213" s="1" t="s">
         <v>3686</v>
-      </c>
-      <c r="D1213" s="1" t="s">
-        <v>3687</v>
       </c>
       <c r="E1213" s="1" t="s">
         <v>108</v>
@@ -57193,13 +57193,13 @@
         <v>1213</v>
       </c>
       <c r="B1214" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1214" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="C1214" s="1" t="s">
+      <c r="D1214" s="1" t="s">
         <v>3689</v>
-      </c>
-      <c r="D1214" s="1" t="s">
-        <v>3690</v>
       </c>
       <c r="E1214" s="1" t="s">
         <v>108</v>
@@ -57228,13 +57228,13 @@
         <v>1214</v>
       </c>
       <c r="B1215" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C1215" s="1" t="s">
         <v>3691</v>
       </c>
-      <c r="C1215" s="1" t="s">
+      <c r="D1215" s="1" t="s">
         <v>3692</v>
-      </c>
-      <c r="D1215" s="1" t="s">
-        <v>3693</v>
       </c>
       <c r="E1215" s="1" t="s">
         <v>108</v>
@@ -57263,13 +57263,13 @@
         <v>1215</v>
       </c>
       <c r="B1216" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C1216" s="1" t="s">
         <v>3694</v>
       </c>
-      <c r="C1216" s="1" t="s">
+      <c r="D1216" s="1" t="s">
         <v>3695</v>
-      </c>
-      <c r="D1216" s="1" t="s">
-        <v>3696</v>
       </c>
       <c r="E1216" s="1" t="s">
         <v>64</v>
@@ -57298,13 +57298,13 @@
         <v>1216</v>
       </c>
       <c r="B1217" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1217" s="1" t="s">
         <v>3697</v>
       </c>
-      <c r="C1217" s="1" t="s">
+      <c r="D1217" s="1" t="s">
         <v>3698</v>
-      </c>
-      <c r="D1217" s="1" t="s">
-        <v>3699</v>
       </c>
       <c r="E1217" s="1" t="s">
         <v>32</v>
@@ -57333,13 +57333,13 @@
         <v>1217</v>
       </c>
       <c r="B1218" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1218" s="1" t="s">
         <v>3700</v>
       </c>
-      <c r="C1218" s="1" t="s">
+      <c r="D1218" s="1" t="s">
         <v>3701</v>
-      </c>
-      <c r="D1218" s="1" t="s">
-        <v>3702</v>
       </c>
       <c r="E1218" s="1" t="s">
         <v>53</v>
@@ -57368,13 +57368,13 @@
         <v>1218</v>
       </c>
       <c r="B1219" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C1219" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="C1219" s="1" t="s">
+      <c r="D1219" s="1" t="s">
         <v>3704</v>
-      </c>
-      <c r="D1219" s="1" t="s">
-        <v>3705</v>
       </c>
       <c r="E1219" s="1" t="s">
         <v>64</v>
@@ -57403,13 +57403,13 @@
         <v>1219</v>
       </c>
       <c r="B1220" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1220" s="1" t="s">
         <v>3706</v>
       </c>
-      <c r="C1220" s="1" t="s">
+      <c r="D1220" s="1" t="s">
         <v>3707</v>
-      </c>
-      <c r="D1220" s="1" t="s">
-        <v>3708</v>
       </c>
       <c r="E1220" s="1" t="s">
         <v>20</v>
@@ -57438,13 +57438,13 @@
         <v>1220</v>
       </c>
       <c r="B1221" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C1221" s="1" t="s">
         <v>3709</v>
       </c>
-      <c r="C1221" s="1" t="s">
+      <c r="D1221" s="1" t="s">
         <v>3710</v>
-      </c>
-      <c r="D1221" s="1" t="s">
-        <v>3711</v>
       </c>
       <c r="E1221" s="1" t="s">
         <v>781</v>
@@ -57473,13 +57473,13 @@
         <v>1221</v>
       </c>
       <c r="B1222" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1222" s="1" t="s">
         <v>3712</v>
       </c>
-      <c r="C1222" s="1" t="s">
+      <c r="D1222" s="1" t="s">
         <v>3713</v>
-      </c>
-      <c r="D1222" s="1" t="s">
-        <v>3714</v>
       </c>
       <c r="E1222" s="1" t="s">
         <v>781</v>
@@ -57508,13 +57508,13 @@
         <v>1222</v>
       </c>
       <c r="B1223" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C1223" s="1" t="s">
         <v>3715</v>
       </c>
-      <c r="C1223" s="1" t="s">
+      <c r="D1223" s="1" t="s">
         <v>3716</v>
-      </c>
-      <c r="D1223" s="1" t="s">
-        <v>3717</v>
       </c>
       <c r="E1223" s="1" t="s">
         <v>781</v>
@@ -57543,13 +57543,13 @@
         <v>1223</v>
       </c>
       <c r="B1224" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1224" s="1" t="s">
         <v>3718</v>
       </c>
-      <c r="C1224" s="1" t="s">
+      <c r="D1224" s="1" t="s">
         <v>3719</v>
-      </c>
-      <c r="D1224" s="1" t="s">
-        <v>3720</v>
       </c>
       <c r="E1224" s="1" t="s">
         <v>781</v>
@@ -57578,13 +57578,13 @@
         <v>1224</v>
       </c>
       <c r="B1225" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C1225" s="1" t="s">
         <v>3721</v>
       </c>
-      <c r="C1225" s="1" t="s">
+      <c r="D1225" s="1" t="s">
         <v>3722</v>
-      </c>
-      <c r="D1225" s="1" t="s">
-        <v>3723</v>
       </c>
       <c r="E1225" s="1" t="s">
         <v>43</v>
@@ -57613,13 +57613,13 @@
         <v>1225</v>
       </c>
       <c r="B1226" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C1226" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C1226" s="1" t="s">
+      <c r="D1226" s="1" t="s">
         <v>3725</v>
-      </c>
-      <c r="D1226" s="1" t="s">
-        <v>3726</v>
       </c>
       <c r="E1226" s="1" t="s">
         <v>43</v>
@@ -57648,13 +57648,13 @@
         <v>1226</v>
       </c>
       <c r="B1227" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C1227" s="1" t="s">
         <v>3727</v>
       </c>
-      <c r="C1227" s="1" t="s">
+      <c r="D1227" s="1" t="s">
         <v>3728</v>
-      </c>
-      <c r="D1227" s="1" t="s">
-        <v>3729</v>
       </c>
       <c r="E1227" s="1" t="s">
         <v>48</v>
@@ -57683,13 +57683,13 @@
         <v>1227</v>
       </c>
       <c r="B1228" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C1228" s="1" t="s">
         <v>3730</v>
       </c>
-      <c r="C1228" s="1" t="s">
+      <c r="D1228" s="1" t="s">
         <v>3731</v>
-      </c>
-      <c r="D1228" s="1" t="s">
-        <v>3732</v>
       </c>
       <c r="E1228" s="1" t="s">
         <v>48</v>
@@ -57718,13 +57718,13 @@
         <v>1228</v>
       </c>
       <c r="B1229" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C1229" s="1" t="s">
         <v>3733</v>
       </c>
-      <c r="C1229" s="1" t="s">
+      <c r="D1229" s="1" t="s">
         <v>3734</v>
-      </c>
-      <c r="D1229" s="1" t="s">
-        <v>3735</v>
       </c>
       <c r="E1229" s="1" t="s">
         <v>48</v>
@@ -57753,13 +57753,13 @@
         <v>1229</v>
       </c>
       <c r="B1230" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1230" s="1" t="s">
         <v>3736</v>
       </c>
-      <c r="C1230" s="1" t="s">
+      <c r="D1230" s="1" t="s">
         <v>3737</v>
-      </c>
-      <c r="D1230" s="1" t="s">
-        <v>3738</v>
       </c>
       <c r="E1230" s="1" t="s">
         <v>26</v>
@@ -57788,13 +57788,13 @@
         <v>1230</v>
       </c>
       <c r="B1231" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1231" s="1" t="s">
         <v>3739</v>
       </c>
-      <c r="C1231" s="1" t="s">
+      <c r="D1231" s="1" t="s">
         <v>3740</v>
-      </c>
-      <c r="D1231" s="1" t="s">
-        <v>3741</v>
       </c>
       <c r="E1231" s="1" t="s">
         <v>26</v>
@@ -57823,13 +57823,13 @@
         <v>1231</v>
       </c>
       <c r="B1232" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C1232" s="1" t="s">
         <v>3742</v>
       </c>
-      <c r="C1232" s="1" t="s">
+      <c r="D1232" s="1" t="s">
         <v>3743</v>
-      </c>
-      <c r="D1232" s="1" t="s">
-        <v>3744</v>
       </c>
       <c r="E1232" s="1" t="s">
         <v>26</v>
@@ -57858,13 +57858,13 @@
         <v>1232</v>
       </c>
       <c r="B1233" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C1233" s="1" t="s">
         <v>3745</v>
       </c>
-      <c r="C1233" s="1" t="s">
+      <c r="D1233" s="1" t="s">
         <v>3746</v>
-      </c>
-      <c r="D1233" s="1" t="s">
-        <v>3747</v>
       </c>
       <c r="E1233" s="1" t="s">
         <v>14</v>
@@ -57893,13 +57893,13 @@
         <v>1233</v>
       </c>
       <c r="B1234" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C1234" s="1" t="s">
         <v>3748</v>
       </c>
-      <c r="C1234" s="1" t="s">
+      <c r="D1234" s="1" t="s">
         <v>3749</v>
-      </c>
-      <c r="D1234" s="1" t="s">
-        <v>3750</v>
       </c>
       <c r="E1234" s="1" t="s">
         <v>14</v>
@@ -57928,13 +57928,13 @@
         <v>1234</v>
       </c>
       <c r="B1235" s="1" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1235" s="1" t="s">
         <v>3751</v>
       </c>
-      <c r="C1235" s="1" t="s">
+      <c r="D1235" s="1" t="s">
         <v>3752</v>
-      </c>
-      <c r="D1235" s="1" t="s">
-        <v>3753</v>
       </c>
       <c r="E1235" s="1" t="s">
         <v>43</v>
@@ -57963,13 +57963,13 @@
         <v>1235</v>
       </c>
       <c r="B1236" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1236" s="1" t="s">
         <v>3754</v>
       </c>
-      <c r="C1236" s="1" t="s">
+      <c r="D1236" s="1" t="s">
         <v>3755</v>
-      </c>
-      <c r="D1236" s="1" t="s">
-        <v>3756</v>
       </c>
       <c r="E1236" s="1" t="s">
         <v>20</v>
@@ -57998,13 +57998,13 @@
         <v>1236</v>
       </c>
       <c r="B1237" s="1" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C1237" s="1" t="s">
         <v>3757</v>
       </c>
-      <c r="C1237" s="1" t="s">
+      <c r="D1237" s="1" t="s">
         <v>3758</v>
-      </c>
-      <c r="D1237" s="1" t="s">
-        <v>3759</v>
       </c>
       <c r="E1237" s="1" t="s">
         <v>37</v>
@@ -58033,13 +58033,13 @@
         <v>1237</v>
       </c>
       <c r="B1238" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C1238" s="1" t="s">
         <v>3760</v>
       </c>
-      <c r="C1238" s="1" t="s">
+      <c r="D1238" s="1" t="s">
         <v>3761</v>
-      </c>
-      <c r="D1238" s="1" t="s">
-        <v>3762</v>
       </c>
       <c r="E1238" s="1" t="s">
         <v>20</v>
@@ -58068,13 +58068,13 @@
         <v>1238</v>
       </c>
       <c r="B1239" s="1" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C1239" s="1" t="s">
         <v>3763</v>
       </c>
-      <c r="C1239" s="1" t="s">
+      <c r="D1239" s="1" t="s">
         <v>3764</v>
-      </c>
-      <c r="D1239" s="1" t="s">
-        <v>3765</v>
       </c>
       <c r="E1239" s="1" t="s">
         <v>20</v>
@@ -58103,13 +58103,13 @@
         <v>1239</v>
       </c>
       <c r="B1240" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C1240" s="1" t="s">
         <v>3766</v>
       </c>
-      <c r="C1240" s="1" t="s">
+      <c r="D1240" s="1" t="s">
         <v>3767</v>
-      </c>
-      <c r="D1240" s="1" t="s">
-        <v>3768</v>
       </c>
       <c r="E1240" s="1" t="s">
         <v>92</v>
@@ -58138,13 +58138,13 @@
         <v>1240</v>
       </c>
       <c r="B1241" s="1" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C1241" s="1" t="s">
         <v>3769</v>
       </c>
-      <c r="C1241" s="1" t="s">
+      <c r="D1241" s="1" t="s">
         <v>3770</v>
-      </c>
-      <c r="D1241" s="1" t="s">
-        <v>3771</v>
       </c>
       <c r="E1241" s="1" t="s">
         <v>26</v>
@@ -58173,13 +58173,13 @@
         <v>1241</v>
       </c>
       <c r="B1242" s="1" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C1242" s="1" t="s">
         <v>3772</v>
       </c>
-      <c r="C1242" s="1" t="s">
+      <c r="D1242" s="1" t="s">
         <v>3773</v>
-      </c>
-      <c r="D1242" s="1" t="s">
-        <v>3774</v>
       </c>
       <c r="E1242" s="1" t="s">
         <v>92</v>
@@ -58208,13 +58208,13 @@
         <v>1242</v>
       </c>
       <c r="B1243" s="1" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C1243" s="1" t="s">
         <v>3775</v>
       </c>
-      <c r="C1243" s="1" t="s">
+      <c r="D1243" s="1" t="s">
         <v>3776</v>
-      </c>
-      <c r="D1243" s="1" t="s">
-        <v>3777</v>
       </c>
       <c r="E1243" s="1" t="s">
         <v>57</v>
@@ -58243,13 +58243,13 @@
         <v>1243</v>
       </c>
       <c r="B1244" s="1" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C1244" s="1" t="s">
         <v>3778</v>
       </c>
-      <c r="C1244" s="1" t="s">
+      <c r="D1244" s="1" t="s">
         <v>3779</v>
-      </c>
-      <c r="D1244" s="1" t="s">
-        <v>3780</v>
       </c>
       <c r="E1244" s="1" t="s">
         <v>26</v>
@@ -58278,13 +58278,13 @@
         <v>1244</v>
       </c>
       <c r="B1245" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="C1245" s="1" t="s">
         <v>3781</v>
       </c>
-      <c r="C1245" s="1" t="s">
+      <c r="D1245" s="1" t="s">
         <v>3782</v>
-      </c>
-      <c r="D1245" s="1" t="s">
-        <v>3783</v>
       </c>
       <c r="E1245" s="1" t="s">
         <v>26</v>
@@ -58313,13 +58313,13 @@
         <v>1245</v>
       </c>
       <c r="B1246" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C1246" s="1" t="s">
         <v>3784</v>
       </c>
-      <c r="C1246" s="1" t="s">
+      <c r="D1246" s="1" t="s">
         <v>3785</v>
-      </c>
-      <c r="D1246" s="1" t="s">
-        <v>3786</v>
       </c>
       <c r="E1246" s="1" t="s">
         <v>26</v>
@@ -58348,13 +58348,13 @@
         <v>1246</v>
       </c>
       <c r="B1247" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C1247" s="1" t="s">
         <v>3787</v>
       </c>
-      <c r="C1247" s="1" t="s">
+      <c r="D1247" s="1" t="s">
         <v>3788</v>
-      </c>
-      <c r="D1247" s="1" t="s">
-        <v>3789</v>
       </c>
       <c r="E1247" s="1" t="s">
         <v>26</v>
@@ -58383,13 +58383,13 @@
         <v>1247</v>
       </c>
       <c r="B1248" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1248" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="C1248" s="1" t="s">
+      <c r="D1248" s="1" t="s">
         <v>3791</v>
-      </c>
-      <c r="D1248" s="1" t="s">
-        <v>3792</v>
       </c>
       <c r="E1248" s="1" t="s">
         <v>57</v>
@@ -58418,13 +58418,13 @@
         <v>1248</v>
       </c>
       <c r="B1249" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C1249" s="1" t="s">
         <v>3793</v>
       </c>
-      <c r="C1249" s="1" t="s">
+      <c r="D1249" s="1" t="s">
         <v>3794</v>
-      </c>
-      <c r="D1249" s="1" t="s">
-        <v>3795</v>
       </c>
       <c r="E1249" s="1" t="s">
         <v>26</v>
@@ -58453,13 +58453,13 @@
         <v>1249</v>
       </c>
       <c r="B1250" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1250" s="1" t="s">
         <v>3796</v>
       </c>
-      <c r="C1250" s="1" t="s">
+      <c r="D1250" s="1" t="s">
         <v>3797</v>
-      </c>
-      <c r="D1250" s="1" t="s">
-        <v>3798</v>
       </c>
       <c r="E1250" s="1" t="s">
         <v>32</v>
@@ -58488,13 +58488,13 @@
         <v>1250</v>
       </c>
       <c r="B1251" s="1" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1251" s="1" t="s">
         <v>3799</v>
       </c>
-      <c r="C1251" s="1" t="s">
+      <c r="D1251" s="1" t="s">
         <v>3800</v>
-      </c>
-      <c r="D1251" s="1" t="s">
-        <v>3801</v>
       </c>
       <c r="E1251" s="1" t="s">
         <v>64</v>
@@ -58523,13 +58523,13 @@
         <v>1251</v>
       </c>
       <c r="B1252" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C1252" s="1" t="s">
         <v>3802</v>
       </c>
-      <c r="C1252" s="1" t="s">
+      <c r="D1252" s="1" t="s">
         <v>3803</v>
-      </c>
-      <c r="D1252" s="1" t="s">
-        <v>3804</v>
       </c>
       <c r="E1252" s="1" t="s">
         <v>26</v>
@@ -58558,13 +58558,13 @@
         <v>1252</v>
       </c>
       <c r="B1253" s="1" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1253" s="1" t="s">
         <v>3805</v>
       </c>
-      <c r="C1253" s="1" t="s">
+      <c r="D1253" s="1" t="s">
         <v>3806</v>
-      </c>
-      <c r="D1253" s="1" t="s">
-        <v>3807</v>
       </c>
       <c r="E1253" s="1" t="s">
         <v>92</v>
@@ -58593,13 +58593,13 @@
         <v>1253</v>
       </c>
       <c r="B1254" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C1254" s="1" t="s">
         <v>3808</v>
       </c>
-      <c r="C1254" s="1" t="s">
+      <c r="D1254" s="1" t="s">
         <v>3809</v>
-      </c>
-      <c r="D1254" s="1" t="s">
-        <v>3810</v>
       </c>
       <c r="E1254" s="1" t="s">
         <v>32</v>
@@ -58628,13 +58628,13 @@
         <v>1254</v>
       </c>
       <c r="B1255" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C1255" s="1" t="s">
         <v>3811</v>
       </c>
-      <c r="C1255" s="1" t="s">
+      <c r="D1255" s="1" t="s">
         <v>3812</v>
-      </c>
-      <c r="D1255" s="1" t="s">
-        <v>3813</v>
       </c>
       <c r="E1255" s="1" t="s">
         <v>20</v>
@@ -58663,13 +58663,13 @@
         <v>1255</v>
       </c>
       <c r="B1256" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C1256" s="1" t="s">
         <v>3814</v>
       </c>
-      <c r="C1256" s="1" t="s">
+      <c r="D1256" s="1" t="s">
         <v>3815</v>
-      </c>
-      <c r="D1256" s="1" t="s">
-        <v>3816</v>
       </c>
       <c r="E1256" s="1" t="s">
         <v>200</v>
@@ -58698,13 +58698,13 @@
         <v>1256</v>
       </c>
       <c r="B1257" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C1257" s="1" t="s">
         <v>3817</v>
       </c>
-      <c r="C1257" s="1" t="s">
+      <c r="D1257" s="1" t="s">
         <v>3818</v>
-      </c>
-      <c r="D1257" s="1" t="s">
-        <v>3819</v>
       </c>
       <c r="E1257" s="1" t="s">
         <v>445</v>
@@ -58733,13 +58733,13 @@
         <v>1257</v>
       </c>
       <c r="B1258" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C1258" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="C1258" s="1" t="s">
+      <c r="D1258" s="1" t="s">
         <v>3821</v>
-      </c>
-      <c r="D1258" s="1" t="s">
-        <v>3822</v>
       </c>
       <c r="E1258" s="1" t="s">
         <v>14</v>
@@ -58768,13 +58768,13 @@
         <v>1258</v>
       </c>
       <c r="B1259" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C1259" s="1" t="s">
         <v>3823</v>
       </c>
-      <c r="C1259" s="1" t="s">
+      <c r="D1259" s="1" t="s">
         <v>3824</v>
-      </c>
-      <c r="D1259" s="1" t="s">
-        <v>3825</v>
       </c>
       <c r="E1259" s="1" t="s">
         <v>92</v>
@@ -58803,13 +58803,13 @@
         <v>1259</v>
       </c>
       <c r="B1260" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C1260" s="1" t="s">
         <v>3826</v>
       </c>
-      <c r="C1260" s="1" t="s">
+      <c r="D1260" s="1" t="s">
         <v>3827</v>
-      </c>
-      <c r="D1260" s="1" t="s">
-        <v>3828</v>
       </c>
       <c r="E1260" s="1" t="s">
         <v>14</v>
@@ -58838,13 +58838,13 @@
         <v>1260</v>
       </c>
       <c r="B1261" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C1261" s="1" t="s">
         <v>3829</v>
       </c>
-      <c r="C1261" s="1" t="s">
+      <c r="D1261" s="1" t="s">
         <v>3830</v>
-      </c>
-      <c r="D1261" s="1" t="s">
-        <v>3831</v>
       </c>
       <c r="E1261" s="1" t="s">
         <v>20</v>
@@ -58873,13 +58873,13 @@
         <v>1261</v>
       </c>
       <c r="B1262" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C1262" s="1" t="s">
         <v>3832</v>
       </c>
-      <c r="C1262" s="1" t="s">
+      <c r="D1262" s="1" t="s">
         <v>3833</v>
-      </c>
-      <c r="D1262" s="1" t="s">
-        <v>3834</v>
       </c>
       <c r="E1262" s="1" t="s">
         <v>26</v>
@@ -58908,13 +58908,13 @@
         <v>1262</v>
       </c>
       <c r="B1263" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1263" s="1" t="s">
         <v>3835</v>
       </c>
-      <c r="C1263" s="1" t="s">
+      <c r="D1263" s="1" t="s">
         <v>3836</v>
-      </c>
-      <c r="D1263" s="1" t="s">
-        <v>3837</v>
       </c>
       <c r="E1263" s="1" t="s">
         <v>115</v>
@@ -58943,13 +58943,13 @@
         <v>1263</v>
       </c>
       <c r="B1264" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C1264" s="1" t="s">
         <v>3838</v>
       </c>
-      <c r="C1264" s="1" t="s">
+      <c r="D1264" s="1" t="s">
         <v>3839</v>
-      </c>
-      <c r="D1264" s="1" t="s">
-        <v>3840</v>
       </c>
       <c r="E1264" s="1" t="s">
         <v>48</v>
@@ -58978,13 +58978,13 @@
         <v>1264</v>
       </c>
       <c r="B1265" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C1265" s="1" t="s">
         <v>3841</v>
       </c>
-      <c r="C1265" s="1" t="s">
+      <c r="D1265" s="1" t="s">
         <v>3842</v>
-      </c>
-      <c r="D1265" s="1" t="s">
-        <v>3843</v>
       </c>
       <c r="E1265" s="1" t="s">
         <v>14</v>
@@ -59013,13 +59013,13 @@
         <v>1265</v>
       </c>
       <c r="B1266" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1266" s="1" t="s">
         <v>3844</v>
       </c>
-      <c r="C1266" s="1" t="s">
+      <c r="D1266" s="1" t="s">
         <v>3845</v>
-      </c>
-      <c r="D1266" s="1" t="s">
-        <v>3846</v>
       </c>
       <c r="E1266" s="1" t="s">
         <v>14</v>
@@ -59048,13 +59048,13 @@
         <v>1266</v>
       </c>
       <c r="B1267" s="1" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C1267" s="1" t="s">
         <v>3847</v>
       </c>
-      <c r="C1267" s="1" t="s">
+      <c r="D1267" s="1" t="s">
         <v>3848</v>
-      </c>
-      <c r="D1267" s="1" t="s">
-        <v>3849</v>
       </c>
       <c r="E1267" s="1" t="s">
         <v>14</v>
@@ -59083,13 +59083,13 @@
         <v>1267</v>
       </c>
       <c r="B1268" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1268" s="1" t="s">
         <v>3850</v>
       </c>
-      <c r="C1268" s="1" t="s">
+      <c r="D1268" s="1" t="s">
         <v>3851</v>
-      </c>
-      <c r="D1268" s="1" t="s">
-        <v>3852</v>
       </c>
       <c r="E1268" s="1" t="s">
         <v>26</v>
@@ -59118,13 +59118,13 @@
         <v>1268</v>
       </c>
       <c r="B1269" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1269" s="1" t="s">
         <v>3853</v>
       </c>
-      <c r="C1269" s="1" t="s">
+      <c r="D1269" s="1" t="s">
         <v>3854</v>
-      </c>
-      <c r="D1269" s="1" t="s">
-        <v>3855</v>
       </c>
       <c r="E1269" s="1" t="s">
         <v>115</v>
@@ -59153,13 +59153,13 @@
         <v>1269</v>
       </c>
       <c r="B1270" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C1270" s="1" t="s">
         <v>3856</v>
       </c>
-      <c r="C1270" s="1" t="s">
+      <c r="D1270" s="1" t="s">
         <v>3857</v>
-      </c>
-      <c r="D1270" s="1" t="s">
-        <v>3858</v>
       </c>
       <c r="E1270" s="1" t="s">
         <v>20</v>
@@ -59188,13 +59188,13 @@
         <v>1270</v>
       </c>
       <c r="B1271" s="1" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C1271" s="1" t="s">
         <v>3859</v>
       </c>
-      <c r="C1271" s="1" t="s">
+      <c r="D1271" s="1" t="s">
         <v>3860</v>
-      </c>
-      <c r="D1271" s="1" t="s">
-        <v>3861</v>
       </c>
       <c r="E1271" s="1" t="s">
         <v>32</v>
@@ -59223,13 +59223,13 @@
         <v>1271</v>
       </c>
       <c r="B1272" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C1272" s="1" t="s">
         <v>3862</v>
       </c>
-      <c r="C1272" s="1" t="s">
+      <c r="D1272" s="1" t="s">
         <v>3863</v>
-      </c>
-      <c r="D1272" s="1" t="s">
-        <v>3864</v>
       </c>
       <c r="E1272" s="1" t="s">
         <v>115</v>
@@ -59258,13 +59258,13 @@
         <v>1272</v>
       </c>
       <c r="B1273" s="1" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C1273" s="1" t="s">
         <v>3865</v>
       </c>
-      <c r="C1273" s="1" t="s">
+      <c r="D1273" s="1" t="s">
         <v>3866</v>
-      </c>
-      <c r="D1273" s="1" t="s">
-        <v>3867</v>
       </c>
       <c r="E1273" s="1" t="s">
         <v>37</v>
@@ -59293,13 +59293,13 @@
         <v>1273</v>
       </c>
       <c r="B1274" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C1274" s="1" t="s">
         <v>3868</v>
       </c>
-      <c r="C1274" s="1" t="s">
+      <c r="D1274" s="1" t="s">
         <v>3869</v>
-      </c>
-      <c r="D1274" s="1" t="s">
-        <v>3870</v>
       </c>
       <c r="E1274" s="1" t="s">
         <v>20</v>
@@ -59328,13 +59328,13 @@
         <v>1274</v>
       </c>
       <c r="B1275" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C1275" s="1" t="s">
         <v>3871</v>
       </c>
-      <c r="C1275" s="1" t="s">
+      <c r="D1275" s="1" t="s">
         <v>3872</v>
-      </c>
-      <c r="D1275" s="1" t="s">
-        <v>3873</v>
       </c>
       <c r="E1275" s="1" t="s">
         <v>92</v>
@@ -59363,13 +59363,13 @@
         <v>1275</v>
       </c>
       <c r="B1276" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C1276" s="1" t="s">
         <v>3874</v>
       </c>
-      <c r="C1276" s="1" t="s">
+      <c r="D1276" s="1" t="s">
         <v>3875</v>
-      </c>
-      <c r="D1276" s="1" t="s">
-        <v>3876</v>
       </c>
       <c r="E1276" s="1" t="s">
         <v>32</v>
@@ -59398,13 +59398,13 @@
         <v>1276</v>
       </c>
       <c r="B1277" s="1" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C1277" s="1" t="s">
         <v>3877</v>
       </c>
-      <c r="C1277" s="1" t="s">
+      <c r="D1277" s="1" t="s">
         <v>3878</v>
-      </c>
-      <c r="D1277" s="1" t="s">
-        <v>3879</v>
       </c>
       <c r="E1277" s="1" t="s">
         <v>1362</v>
@@ -59433,13 +59433,13 @@
         <v>1277</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C1278" s="1" t="s">
         <v>3880</v>
       </c>
-      <c r="C1278" s="1" t="s">
+      <c r="D1278" s="1" t="s">
         <v>3881</v>
-      </c>
-      <c r="D1278" s="1" t="s">
-        <v>3882</v>
       </c>
       <c r="E1278" s="1" t="s">
         <v>200</v>
@@ -59468,13 +59468,13 @@
         <v>1278</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C1279" s="1" t="s">
         <v>3883</v>
       </c>
-      <c r="C1279" s="1" t="s">
+      <c r="D1279" s="1" t="s">
         <v>3884</v>
-      </c>
-      <c r="D1279" s="1" t="s">
-        <v>3885</v>
       </c>
       <c r="E1279" s="1" t="s">
         <v>315</v>
@@ -59503,13 +59503,13 @@
         <v>1279</v>
       </c>
       <c r="B1280" s="1" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C1280" s="1" t="s">
         <v>3886</v>
       </c>
-      <c r="C1280" s="1" t="s">
+      <c r="D1280" s="1" t="s">
         <v>3887</v>
-      </c>
-      <c r="D1280" s="1" t="s">
-        <v>3888</v>
       </c>
       <c r="E1280" s="1" t="s">
         <v>64</v>
@@ -59538,13 +59538,13 @@
         <v>1280</v>
       </c>
       <c r="B1281" s="1" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C1281" s="1" t="s">
         <v>3889</v>
       </c>
-      <c r="C1281" s="1" t="s">
+      <c r="D1281" s="1" t="s">
         <v>3890</v>
-      </c>
-      <c r="D1281" s="1" t="s">
-        <v>3891</v>
       </c>
       <c r="E1281" s="1" t="s">
         <v>20</v>
@@ -59573,13 +59573,13 @@
         <v>1281</v>
       </c>
       <c r="B1282" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C1282" s="1" t="s">
         <v>3892</v>
       </c>
-      <c r="C1282" s="1" t="s">
+      <c r="D1282" s="1" t="s">
         <v>3893</v>
-      </c>
-      <c r="D1282" s="1" t="s">
-        <v>3894</v>
       </c>
       <c r="E1282" s="1" t="s">
         <v>26</v>
@@ -59608,13 +59608,13 @@
         <v>1282</v>
       </c>
       <c r="B1283" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C1283" s="1" t="s">
         <v>3895</v>
       </c>
-      <c r="C1283" s="1" t="s">
+      <c r="D1283" s="1" t="s">
         <v>3896</v>
-      </c>
-      <c r="D1283" s="1" t="s">
-        <v>3897</v>
       </c>
       <c r="E1283" s="1" t="s">
         <v>200</v>
@@ -59643,13 +59643,13 @@
         <v>1283</v>
       </c>
       <c r="B1284" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1284" s="1" t="s">
         <v>3898</v>
       </c>
-      <c r="C1284" s="1" t="s">
+      <c r="D1284" s="1" t="s">
         <v>3899</v>
-      </c>
-      <c r="D1284" s="1" t="s">
-        <v>3900</v>
       </c>
       <c r="E1284" s="1" t="s">
         <v>26</v>
@@ -59678,13 +59678,13 @@
         <v>1284</v>
       </c>
       <c r="B1285" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C1285" s="1" t="s">
         <v>3901</v>
       </c>
-      <c r="C1285" s="1" t="s">
+      <c r="D1285" s="1" t="s">
         <v>3902</v>
-      </c>
-      <c r="D1285" s="1" t="s">
-        <v>3903</v>
       </c>
       <c r="E1285" s="1" t="s">
         <v>26</v>
@@ -59713,13 +59713,13 @@
         <v>1285</v>
       </c>
       <c r="B1286" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C1286" s="1" t="s">
         <v>3904</v>
       </c>
-      <c r="C1286" s="1" t="s">
+      <c r="D1286" s="1" t="s">
         <v>3905</v>
-      </c>
-      <c r="D1286" s="1" t="s">
-        <v>3906</v>
       </c>
       <c r="E1286" s="1" t="s">
         <v>26</v>
@@ -59748,13 +59748,13 @@
         <v>1286</v>
       </c>
       <c r="B1287" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C1287" s="1" t="s">
         <v>3907</v>
       </c>
-      <c r="C1287" s="1" t="s">
+      <c r="D1287" s="1" t="s">
         <v>3908</v>
-      </c>
-      <c r="D1287" s="1" t="s">
-        <v>3909</v>
       </c>
       <c r="E1287" s="1" t="s">
         <v>26</v>
@@ -59783,13 +59783,13 @@
         <v>1287</v>
       </c>
       <c r="B1288" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C1288" s="1" t="s">
         <v>3910</v>
       </c>
-      <c r="C1288" s="1" t="s">
+      <c r="D1288" s="1" t="s">
         <v>3911</v>
-      </c>
-      <c r="D1288" s="1" t="s">
-        <v>3912</v>
       </c>
       <c r="E1288" s="1" t="s">
         <v>26</v>
@@ -59818,13 +59818,13 @@
         <v>1288</v>
       </c>
       <c r="B1289" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C1289" s="1" t="s">
         <v>3913</v>
       </c>
-      <c r="C1289" s="1" t="s">
+      <c r="D1289" s="1" t="s">
         <v>3914</v>
-      </c>
-      <c r="D1289" s="1" t="s">
-        <v>3915</v>
       </c>
       <c r="E1289" s="1" t="s">
         <v>26</v>
@@ -59853,13 +59853,13 @@
         <v>1289</v>
       </c>
       <c r="B1290" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C1290" s="1" t="s">
         <v>3916</v>
       </c>
-      <c r="C1290" s="1" t="s">
+      <c r="D1290" s="1" t="s">
         <v>3917</v>
-      </c>
-      <c r="D1290" s="1" t="s">
-        <v>3918</v>
       </c>
       <c r="E1290" s="1" t="s">
         <v>26</v>
@@ -59888,13 +59888,13 @@
         <v>1290</v>
       </c>
       <c r="B1291" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1291" s="1" t="s">
         <v>3919</v>
       </c>
-      <c r="C1291" s="1" t="s">
+      <c r="D1291" s="1" t="s">
         <v>3920</v>
-      </c>
-      <c r="D1291" s="1" t="s">
-        <v>3921</v>
       </c>
       <c r="E1291" s="1" t="s">
         <v>26</v>
@@ -59923,13 +59923,13 @@
         <v>1291</v>
       </c>
       <c r="B1292" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C1292" s="1" t="s">
         <v>3922</v>
       </c>
-      <c r="C1292" s="1" t="s">
+      <c r="D1292" s="1" t="s">
         <v>3923</v>
-      </c>
-      <c r="D1292" s="1" t="s">
-        <v>3924</v>
       </c>
       <c r="E1292" s="1" t="s">
         <v>26</v>
@@ -59958,13 +59958,13 @@
         <v>1292</v>
       </c>
       <c r="B1293" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C1293" s="1" t="s">
         <v>3925</v>
       </c>
-      <c r="C1293" s="1" t="s">
+      <c r="D1293" s="1" t="s">
         <v>3926</v>
-      </c>
-      <c r="D1293" s="1" t="s">
-        <v>3927</v>
       </c>
       <c r="E1293" s="1" t="s">
         <v>43</v>
@@ -59993,13 +59993,13 @@
         <v>1293</v>
       </c>
       <c r="B1294" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C1294" s="1" t="s">
         <v>3928</v>
       </c>
-      <c r="C1294" s="1" t="s">
+      <c r="D1294" s="1" t="s">
         <v>3929</v>
-      </c>
-      <c r="D1294" s="1" t="s">
-        <v>3930</v>
       </c>
       <c r="E1294" s="1" t="s">
         <v>164</v>
@@ -60028,13 +60028,13 @@
         <v>1294</v>
       </c>
       <c r="B1295" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C1295" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="C1295" s="1" t="s">
+      <c r="D1295" s="1" t="s">
         <v>3932</v>
-      </c>
-      <c r="D1295" s="1" t="s">
-        <v>3933</v>
       </c>
       <c r="E1295" s="1" t="s">
         <v>164</v>
@@ -60063,13 +60063,13 @@
         <v>1295</v>
       </c>
       <c r="B1296" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C1296" s="1" t="s">
         <v>3934</v>
       </c>
-      <c r="C1296" s="1" t="s">
+      <c r="D1296" s="1" t="s">
         <v>3935</v>
-      </c>
-      <c r="D1296" s="1" t="s">
-        <v>3936</v>
       </c>
       <c r="E1296" s="1" t="s">
         <v>32</v>
@@ -60098,13 +60098,13 @@
         <v>1296</v>
       </c>
       <c r="B1297" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C1297" s="1" t="s">
         <v>3937</v>
       </c>
-      <c r="C1297" s="1" t="s">
+      <c r="D1297" s="1" t="s">
         <v>3938</v>
-      </c>
-      <c r="D1297" s="1" t="s">
-        <v>3939</v>
       </c>
       <c r="E1297" s="1" t="s">
         <v>64</v>
@@ -60133,13 +60133,13 @@
         <v>1297</v>
       </c>
       <c r="B1298" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C1298" s="1" t="s">
         <v>3940</v>
       </c>
-      <c r="C1298" s="1" t="s">
+      <c r="D1298" s="1" t="s">
         <v>3941</v>
-      </c>
-      <c r="D1298" s="1" t="s">
-        <v>3942</v>
       </c>
       <c r="E1298" s="1" t="s">
         <v>26</v>
@@ -60168,13 +60168,13 @@
         <v>1298</v>
       </c>
       <c r="B1299" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C1299" s="1" t="s">
         <v>3943</v>
       </c>
-      <c r="C1299" s="1" t="s">
+      <c r="D1299" s="1" t="s">
         <v>3944</v>
-      </c>
-      <c r="D1299" s="1" t="s">
-        <v>3945</v>
       </c>
       <c r="E1299" s="1" t="s">
         <v>115</v>
@@ -60203,13 +60203,13 @@
         <v>1299</v>
       </c>
       <c r="B1300" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C1300" s="1" t="s">
         <v>3946</v>
       </c>
-      <c r="C1300" s="1" t="s">
+      <c r="D1300" s="1" t="s">
         <v>3947</v>
-      </c>
-      <c r="D1300" s="1" t="s">
-        <v>3948</v>
       </c>
       <c r="E1300" s="1" t="s">
         <v>26</v>
@@ -60238,13 +60238,13 @@
         <v>1300</v>
       </c>
       <c r="B1301" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C1301" s="1" t="s">
         <v>3949</v>
       </c>
-      <c r="C1301" s="1" t="s">
+      <c r="D1301" s="1" t="s">
         <v>3950</v>
-      </c>
-      <c r="D1301" s="1" t="s">
-        <v>3951</v>
       </c>
       <c r="E1301" s="1" t="s">
         <v>26</v>
@@ -60273,13 +60273,13 @@
         <v>1301</v>
       </c>
       <c r="B1302" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C1302" s="1" t="s">
         <v>3952</v>
       </c>
-      <c r="C1302" s="1" t="s">
+      <c r="D1302" s="1" t="s">
         <v>3953</v>
-      </c>
-      <c r="D1302" s="1" t="s">
-        <v>3954</v>
       </c>
       <c r="E1302" s="1" t="s">
         <v>26</v>
@@ -60308,13 +60308,13 @@
         <v>1302</v>
       </c>
       <c r="B1303" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C1303" s="1" t="s">
         <v>3955</v>
       </c>
-      <c r="C1303" s="1" t="s">
+      <c r="D1303" s="1" t="s">
         <v>3956</v>
-      </c>
-      <c r="D1303" s="1" t="s">
-        <v>3957</v>
       </c>
       <c r="E1303" s="1" t="s">
         <v>48</v>
@@ -60343,13 +60343,13 @@
         <v>1303</v>
       </c>
       <c r="B1304" s="1" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C1304" s="1" t="s">
         <v>3958</v>
       </c>
-      <c r="C1304" s="1" t="s">
+      <c r="D1304" s="1" t="s">
         <v>3959</v>
-      </c>
-      <c r="D1304" s="1" t="s">
-        <v>3960</v>
       </c>
       <c r="E1304" s="1" t="s">
         <v>48</v>
@@ -60378,13 +60378,13 @@
         <v>1304</v>
       </c>
       <c r="B1305" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C1305" s="1" t="s">
         <v>3961</v>
       </c>
-      <c r="C1305" s="1" t="s">
+      <c r="D1305" s="1" t="s">
         <v>3962</v>
-      </c>
-      <c r="D1305" s="1" t="s">
-        <v>3963</v>
       </c>
       <c r="E1305" s="1" t="s">
         <v>64</v>
@@ -60413,13 +60413,13 @@
         <v>1305</v>
       </c>
       <c r="B1306" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="C1306" s="1" t="s">
         <v>3964</v>
       </c>
-      <c r="C1306" s="1" t="s">
+      <c r="D1306" s="1" t="s">
         <v>3965</v>
-      </c>
-      <c r="D1306" s="1" t="s">
-        <v>3966</v>
       </c>
       <c r="E1306" s="1" t="s">
         <v>48</v>
@@ -60448,13 +60448,13 @@
         <v>1306</v>
       </c>
       <c r="B1307" s="1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C1307" s="1" t="s">
         <v>3967</v>
       </c>
-      <c r="C1307" s="1" t="s">
+      <c r="D1307" s="1" t="s">
         <v>3968</v>
-      </c>
-      <c r="D1307" s="1" t="s">
-        <v>3969</v>
       </c>
       <c r="E1307" s="1" t="s">
         <v>48</v>
@@ -60483,13 +60483,13 @@
         <v>1307</v>
       </c>
       <c r="B1308" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C1308" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="C1308" s="1" t="s">
+      <c r="D1308" s="1" t="s">
         <v>3971</v>
-      </c>
-      <c r="D1308" s="1" t="s">
-        <v>3972</v>
       </c>
       <c r="E1308" s="1" t="s">
         <v>48</v>
@@ -60518,13 +60518,13 @@
         <v>1308</v>
       </c>
       <c r="B1309" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C1309" s="1" t="s">
         <v>3973</v>
       </c>
-      <c r="C1309" s="1" t="s">
+      <c r="D1309" s="1" t="s">
         <v>3974</v>
-      </c>
-      <c r="D1309" s="1" t="s">
-        <v>3975</v>
       </c>
       <c r="E1309" s="1" t="s">
         <v>43</v>
@@ -60553,13 +60553,13 @@
         <v>1309</v>
       </c>
       <c r="B1310" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C1310" s="1" t="s">
         <v>3976</v>
       </c>
-      <c r="C1310" s="1" t="s">
+      <c r="D1310" s="1" t="s">
         <v>3977</v>
-      </c>
-      <c r="D1310" s="1" t="s">
-        <v>3978</v>
       </c>
       <c r="E1310" s="1" t="s">
         <v>64</v>
@@ -60588,13 +60588,13 @@
         <v>1310</v>
       </c>
       <c r="B1311" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C1311" s="1" t="s">
         <v>3979</v>
       </c>
-      <c r="C1311" s="1" t="s">
+      <c r="D1311" s="1" t="s">
         <v>3980</v>
-      </c>
-      <c r="D1311" s="1" t="s">
-        <v>3981</v>
       </c>
       <c r="E1311" s="1" t="s">
         <v>64</v>
@@ -60623,13 +60623,13 @@
         <v>1311</v>
       </c>
       <c r="B1312" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C1312" s="1" t="s">
         <v>3982</v>
       </c>
-      <c r="C1312" s="1" t="s">
+      <c r="D1312" s="1" t="s">
         <v>3983</v>
-      </c>
-      <c r="D1312" s="1" t="s">
-        <v>3984</v>
       </c>
       <c r="E1312" s="1" t="s">
         <v>64</v>
@@ -60658,13 +60658,13 @@
         <v>1312</v>
       </c>
       <c r="B1313" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C1313" s="1" t="s">
         <v>3985</v>
       </c>
-      <c r="C1313" s="1" t="s">
+      <c r="D1313" s="1" t="s">
         <v>3986</v>
-      </c>
-      <c r="D1313" s="1" t="s">
-        <v>3987</v>
       </c>
       <c r="E1313" s="1" t="s">
         <v>64</v>
@@ -60693,13 +60693,13 @@
         <v>1313</v>
       </c>
       <c r="B1314" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C1314" s="1" t="s">
         <v>3988</v>
       </c>
-      <c r="C1314" s="1" t="s">
+      <c r="D1314" s="1" t="s">
         <v>3989</v>
-      </c>
-      <c r="D1314" s="1" t="s">
-        <v>3990</v>
       </c>
       <c r="E1314" s="1" t="s">
         <v>64</v>
@@ -60728,13 +60728,13 @@
         <v>1314</v>
       </c>
       <c r="B1315" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C1315" s="1" t="s">
         <v>3991</v>
       </c>
-      <c r="C1315" s="1" t="s">
+      <c r="D1315" s="1" t="s">
         <v>3992</v>
-      </c>
-      <c r="D1315" s="1" t="s">
-        <v>3993</v>
       </c>
       <c r="E1315" s="1" t="s">
         <v>232</v>
@@ -60763,13 +60763,13 @@
         <v>1315</v>
       </c>
       <c r="B1316" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C1316" s="1" t="s">
         <v>3994</v>
       </c>
-      <c r="C1316" s="1" t="s">
+      <c r="D1316" s="1" t="s">
         <v>3995</v>
-      </c>
-      <c r="D1316" s="1" t="s">
-        <v>3996</v>
       </c>
       <c r="E1316" s="1" t="s">
         <v>57</v>
@@ -60798,13 +60798,13 @@
         <v>1316</v>
       </c>
       <c r="B1317" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C1317" s="1" t="s">
         <v>3997</v>
       </c>
-      <c r="C1317" s="1" t="s">
+      <c r="D1317" s="1" t="s">
         <v>3998</v>
-      </c>
-      <c r="D1317" s="1" t="s">
-        <v>3999</v>
       </c>
       <c r="E1317" s="1" t="s">
         <v>108</v>
@@ -60833,13 +60833,13 @@
         <v>1317</v>
       </c>
       <c r="B1318" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C1318" s="1" t="s">
         <v>4000</v>
       </c>
-      <c r="C1318" s="1" t="s">
+      <c r="D1318" s="1" t="s">
         <v>4001</v>
-      </c>
-      <c r="D1318" s="1" t="s">
-        <v>4002</v>
       </c>
       <c r="E1318" s="1" t="s">
         <v>20</v>
@@ -60868,13 +60868,13 @@
         <v>1318</v>
       </c>
       <c r="B1319" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C1319" s="1" t="s">
         <v>4003</v>
       </c>
-      <c r="C1319" s="1" t="s">
+      <c r="D1319" s="1" t="s">
         <v>4004</v>
-      </c>
-      <c r="D1319" s="1" t="s">
-        <v>4005</v>
       </c>
       <c r="E1319" s="1" t="s">
         <v>115</v>
@@ -60903,13 +60903,13 @@
         <v>1319</v>
       </c>
       <c r="B1320" s="1" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C1320" s="1" t="s">
         <v>4006</v>
       </c>
-      <c r="C1320" s="1" t="s">
+      <c r="D1320" s="1" t="s">
         <v>4007</v>
-      </c>
-      <c r="D1320" s="1" t="s">
-        <v>4008</v>
       </c>
       <c r="E1320" s="1" t="s">
         <v>20</v>
@@ -60938,13 +60938,13 @@
         <v>1320</v>
       </c>
       <c r="B1321" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C1321" s="1" t="s">
         <v>4009</v>
       </c>
-      <c r="C1321" s="1" t="s">
+      <c r="D1321" s="1" t="s">
         <v>4010</v>
-      </c>
-      <c r="D1321" s="1" t="s">
-        <v>4011</v>
       </c>
       <c r="E1321" s="1" t="s">
         <v>26</v>
@@ -60973,13 +60973,13 @@
         <v>1321</v>
       </c>
       <c r="B1322" s="1" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1322" s="1" t="s">
         <v>4012</v>
       </c>
-      <c r="C1322" s="1" t="s">
+      <c r="D1322" s="1" t="s">
         <v>4013</v>
-      </c>
-      <c r="D1322" s="1" t="s">
-        <v>4014</v>
       </c>
       <c r="E1322" s="1" t="s">
         <v>26</v>
@@ -61008,13 +61008,13 @@
         <v>1322</v>
       </c>
       <c r="B1323" s="1" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C1323" s="1" t="s">
         <v>4015</v>
       </c>
-      <c r="C1323" s="1" t="s">
+      <c r="D1323" s="1" t="s">
         <v>4016</v>
-      </c>
-      <c r="D1323" s="1" t="s">
-        <v>4017</v>
       </c>
       <c r="E1323" s="1" t="s">
         <v>115</v>
@@ -61043,13 +61043,13 @@
         <v>1323</v>
       </c>
       <c r="B1324" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C1324" s="1" t="s">
         <v>4018</v>
       </c>
-      <c r="C1324" s="1" t="s">
+      <c r="D1324" s="1" t="s">
         <v>4019</v>
-      </c>
-      <c r="D1324" s="1" t="s">
-        <v>4020</v>
       </c>
       <c r="E1324" s="1" t="s">
         <v>108</v>
@@ -61078,13 +61078,13 @@
         <v>1324</v>
       </c>
       <c r="B1325" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C1325" s="1" t="s">
         <v>4021</v>
       </c>
-      <c r="C1325" s="1" t="s">
+      <c r="D1325" s="1" t="s">
         <v>4022</v>
-      </c>
-      <c r="D1325" s="1" t="s">
-        <v>4023</v>
       </c>
       <c r="E1325" s="1" t="s">
         <v>26</v>
@@ -61113,13 +61113,13 @@
         <v>1325</v>
       </c>
       <c r="B1326" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C1326" s="1" t="s">
         <v>4024</v>
       </c>
-      <c r="C1326" s="1" t="s">
+      <c r="D1326" s="1" t="s">
         <v>4025</v>
-      </c>
-      <c r="D1326" s="1" t="s">
-        <v>4026</v>
       </c>
       <c r="E1326" s="1" t="s">
         <v>26</v>
@@ -61148,13 +61148,13 @@
         <v>1326</v>
       </c>
       <c r="B1327" s="1" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C1327" s="1" t="s">
         <v>4027</v>
       </c>
-      <c r="C1327" s="1" t="s">
+      <c r="D1327" s="1" t="s">
         <v>4028</v>
-      </c>
-      <c r="D1327" s="1" t="s">
-        <v>4029</v>
       </c>
       <c r="E1327" s="1" t="s">
         <v>26</v>
@@ -61183,13 +61183,13 @@
         <v>1327</v>
       </c>
       <c r="B1328" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C1328" s="1" t="s">
         <v>4030</v>
       </c>
-      <c r="C1328" s="1" t="s">
+      <c r="D1328" s="1" t="s">
         <v>4031</v>
-      </c>
-      <c r="D1328" s="1" t="s">
-        <v>4032</v>
       </c>
       <c r="E1328" s="1" t="s">
         <v>26</v>
@@ -61218,13 +61218,13 @@
         <v>1328</v>
       </c>
       <c r="B1329" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C1329" s="1" t="s">
         <v>4033</v>
       </c>
-      <c r="C1329" s="1" t="s">
+      <c r="D1329" s="1" t="s">
         <v>4034</v>
-      </c>
-      <c r="D1329" s="1" t="s">
-        <v>4035</v>
       </c>
       <c r="E1329" s="1" t="s">
         <v>26</v>
@@ -61253,13 +61253,13 @@
         <v>1329</v>
       </c>
       <c r="B1330" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C1330" s="1" t="s">
         <v>4036</v>
       </c>
-      <c r="C1330" s="1" t="s">
+      <c r="D1330" s="1" t="s">
         <v>4037</v>
-      </c>
-      <c r="D1330" s="1" t="s">
-        <v>4038</v>
       </c>
       <c r="E1330" s="1" t="s">
         <v>26</v>
@@ -61288,13 +61288,13 @@
         <v>1330</v>
       </c>
       <c r="B1331" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C1331" s="1" t="s">
         <v>4039</v>
       </c>
-      <c r="C1331" s="1" t="s">
+      <c r="D1331" s="1" t="s">
         <v>4040</v>
-      </c>
-      <c r="D1331" s="1" t="s">
-        <v>4041</v>
       </c>
       <c r="E1331" s="1" t="s">
         <v>26</v>
@@ -61323,13 +61323,13 @@
         <v>1331</v>
       </c>
       <c r="B1332" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C1332" s="1" t="s">
         <v>4042</v>
       </c>
-      <c r="C1332" s="1" t="s">
+      <c r="D1332" s="1" t="s">
         <v>4043</v>
-      </c>
-      <c r="D1332" s="1" t="s">
-        <v>4044</v>
       </c>
       <c r="E1332" s="1" t="s">
         <v>115</v>
@@ -61358,13 +61358,13 @@
         <v>1332</v>
       </c>
       <c r="B1333" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C1333" s="1" t="s">
         <v>4045</v>
       </c>
-      <c r="C1333" s="1" t="s">
+      <c r="D1333" s="1" t="s">
         <v>4046</v>
-      </c>
-      <c r="D1333" s="1" t="s">
-        <v>4047</v>
       </c>
       <c r="E1333" s="1" t="s">
         <v>108</v>
@@ -61393,13 +61393,13 @@
         <v>1333</v>
       </c>
       <c r="B1334" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C1334" s="1" t="s">
         <v>4048</v>
       </c>
-      <c r="C1334" s="1" t="s">
+      <c r="D1334" s="1" t="s">
         <v>4049</v>
-      </c>
-      <c r="D1334" s="1" t="s">
-        <v>4050</v>
       </c>
       <c r="E1334" s="1" t="s">
         <v>20</v>
@@ -61428,13 +61428,13 @@
         <v>1334</v>
       </c>
       <c r="B1335" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C1335" s="1" t="s">
         <v>4051</v>
       </c>
-      <c r="C1335" s="1" t="s">
+      <c r="D1335" s="1" t="s">
         <v>4052</v>
-      </c>
-      <c r="D1335" s="1" t="s">
-        <v>4053</v>
       </c>
       <c r="E1335" s="1" t="s">
         <v>20</v>
@@ -61463,13 +61463,13 @@
         <v>1335</v>
       </c>
       <c r="B1336" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C1336" s="1" t="s">
         <v>4054</v>
       </c>
-      <c r="C1336" s="1" t="s">
+      <c r="D1336" s="1" t="s">
         <v>4055</v>
-      </c>
-      <c r="D1336" s="1" t="s">
-        <v>4056</v>
       </c>
       <c r="E1336" s="1" t="s">
         <v>20</v>
@@ -61498,13 +61498,13 @@
         <v>1336</v>
       </c>
       <c r="B1337" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C1337" s="1" t="s">
         <v>4057</v>
       </c>
-      <c r="C1337" s="1" t="s">
+      <c r="D1337" s="1" t="s">
         <v>4058</v>
-      </c>
-      <c r="D1337" s="1" t="s">
-        <v>4059</v>
       </c>
       <c r="E1337" s="1" t="s">
         <v>14</v>
@@ -61533,13 +61533,13 @@
         <v>1337</v>
       </c>
       <c r="B1338" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C1338" s="1" t="s">
         <v>4060</v>
       </c>
-      <c r="C1338" s="1" t="s">
+      <c r="D1338" s="1" t="s">
         <v>4061</v>
-      </c>
-      <c r="D1338" s="1" t="s">
-        <v>4062</v>
       </c>
       <c r="E1338" s="1" t="s">
         <v>26</v>
@@ -61568,13 +61568,13 @@
         <v>1338</v>
       </c>
       <c r="B1339" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C1339" s="1" t="s">
         <v>4063</v>
       </c>
-      <c r="C1339" s="1" t="s">
+      <c r="D1339" s="1" t="s">
         <v>4064</v>
-      </c>
-      <c r="D1339" s="1" t="s">
-        <v>4065</v>
       </c>
       <c r="E1339" s="1" t="s">
         <v>164</v>
@@ -61603,13 +61603,13 @@
         <v>1339</v>
       </c>
       <c r="B1340" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C1340" s="1" t="s">
         <v>4066</v>
       </c>
-      <c r="C1340" s="1" t="s">
+      <c r="D1340" s="1" t="s">
         <v>4067</v>
-      </c>
-      <c r="D1340" s="1" t="s">
-        <v>4068</v>
       </c>
       <c r="E1340" s="1" t="s">
         <v>26</v>
@@ -61638,13 +61638,13 @@
         <v>1340</v>
       </c>
       <c r="B1341" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C1341" s="1" t="s">
         <v>4069</v>
       </c>
-      <c r="C1341" s="1" t="s">
+      <c r="D1341" s="1" t="s">
         <v>4070</v>
-      </c>
-      <c r="D1341" s="1" t="s">
-        <v>4071</v>
       </c>
       <c r="E1341" s="1" t="s">
         <v>20</v>
@@ -61673,13 +61673,13 @@
         <v>1341</v>
       </c>
       <c r="B1342" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C1342" s="1" t="s">
         <v>4072</v>
       </c>
-      <c r="C1342" s="1" t="s">
+      <c r="D1342" s="1" t="s">
         <v>4073</v>
-      </c>
-      <c r="D1342" s="1" t="s">
-        <v>4074</v>
       </c>
       <c r="E1342" s="1" t="s">
         <v>92</v>
@@ -61708,13 +61708,13 @@
         <v>1342</v>
       </c>
       <c r="B1343" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C1343" s="1" t="s">
         <v>4075</v>
       </c>
-      <c r="C1343" s="1" t="s">
+      <c r="D1343" s="1" t="s">
         <v>4076</v>
-      </c>
-      <c r="D1343" s="1" t="s">
-        <v>4077</v>
       </c>
       <c r="E1343" s="1" t="s">
         <v>32</v>
@@ -61743,13 +61743,13 @@
         <v>1343</v>
       </c>
       <c r="B1344" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C1344" s="1" t="s">
         <v>4078</v>
       </c>
-      <c r="C1344" s="1" t="s">
+      <c r="D1344" s="1" t="s">
         <v>4079</v>
-      </c>
-      <c r="D1344" s="1" t="s">
-        <v>4080</v>
       </c>
       <c r="E1344" s="1" t="s">
         <v>43</v>
@@ -61778,13 +61778,13 @@
         <v>1344</v>
       </c>
       <c r="B1345" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C1345" s="1" t="s">
         <v>4081</v>
       </c>
-      <c r="C1345" s="1" t="s">
+      <c r="D1345" s="1" t="s">
         <v>4082</v>
-      </c>
-      <c r="D1345" s="1" t="s">
-        <v>4083</v>
       </c>
       <c r="E1345" s="1" t="s">
         <v>164</v>
@@ -61813,13 +61813,13 @@
         <v>1345</v>
       </c>
       <c r="B1346" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C1346" s="1" t="s">
         <v>4084</v>
       </c>
-      <c r="C1346" s="1" t="s">
+      <c r="D1346" s="1" t="s">
         <v>4085</v>
-      </c>
-      <c r="D1346" s="1" t="s">
-        <v>4086</v>
       </c>
       <c r="E1346" s="1" t="s">
         <v>48</v>
@@ -61848,13 +61848,13 @@
         <v>1346</v>
       </c>
       <c r="B1347" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C1347" s="1" t="s">
         <v>4087</v>
       </c>
-      <c r="C1347" s="1" t="s">
+      <c r="D1347" s="1" t="s">
         <v>4088</v>
-      </c>
-      <c r="D1347" s="1" t="s">
-        <v>4089</v>
       </c>
       <c r="E1347" s="1" t="s">
         <v>37</v>
@@ -61883,13 +61883,13 @@
         <v>1347</v>
       </c>
       <c r="B1348" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C1348" s="1" t="s">
         <v>4090</v>
       </c>
-      <c r="C1348" s="1" t="s">
+      <c r="D1348" s="1" t="s">
         <v>4091</v>
-      </c>
-      <c r="D1348" s="1" t="s">
-        <v>4092</v>
       </c>
       <c r="E1348" s="1" t="s">
         <v>20</v>
@@ -61918,13 +61918,13 @@
         <v>1348</v>
       </c>
       <c r="B1349" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C1349" s="1" t="s">
         <v>4093</v>
       </c>
-      <c r="C1349" s="1" t="s">
+      <c r="D1349" s="1" t="s">
         <v>4094</v>
-      </c>
-      <c r="D1349" s="1" t="s">
-        <v>4095</v>
       </c>
       <c r="E1349" s="1" t="s">
         <v>87</v>
@@ -61953,13 +61953,13 @@
         <v>1349</v>
       </c>
       <c r="B1350" s="1" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C1350" s="1" t="s">
         <v>4096</v>
       </c>
-      <c r="C1350" s="1" t="s">
+      <c r="D1350" s="1" t="s">
         <v>4097</v>
-      </c>
-      <c r="D1350" s="1" t="s">
-        <v>4098</v>
       </c>
       <c r="E1350" s="1" t="s">
         <v>315</v>
@@ -61988,13 +61988,13 @@
         <v>1350</v>
       </c>
       <c r="B1351" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C1351" s="1" t="s">
         <v>4099</v>
       </c>
-      <c r="C1351" s="1" t="s">
+      <c r="D1351" s="1" t="s">
         <v>4100</v>
-      </c>
-      <c r="D1351" s="1" t="s">
-        <v>4101</v>
       </c>
       <c r="E1351" s="1" t="s">
         <v>200</v>
@@ -62023,13 +62023,13 @@
         <v>1351</v>
       </c>
       <c r="B1352" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C1352" s="1" t="s">
         <v>4102</v>
       </c>
-      <c r="C1352" s="1" t="s">
+      <c r="D1352" s="1" t="s">
         <v>4103</v>
-      </c>
-      <c r="D1352" s="1" t="s">
-        <v>4104</v>
       </c>
       <c r="E1352" s="1" t="s">
         <v>92</v>
@@ -62058,13 +62058,13 @@
         <v>1352</v>
       </c>
       <c r="B1353" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C1353" s="1" t="s">
         <v>4105</v>
       </c>
-      <c r="C1353" s="1" t="s">
+      <c r="D1353" s="1" t="s">
         <v>4106</v>
-      </c>
-      <c r="D1353" s="1" t="s">
-        <v>4107</v>
       </c>
       <c r="E1353" s="1" t="s">
         <v>48</v>
@@ -62093,13 +62093,13 @@
         <v>1353</v>
       </c>
       <c r="B1354" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C1354" s="1" t="s">
         <v>4108</v>
       </c>
-      <c r="C1354" s="1" t="s">
+      <c r="D1354" s="1" t="s">
         <v>4109</v>
-      </c>
-      <c r="D1354" s="1" t="s">
-        <v>4110</v>
       </c>
       <c r="E1354" s="1" t="s">
         <v>32</v>
@@ -62128,13 +62128,13 @@
         <v>1354</v>
       </c>
       <c r="B1355" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1355" s="1" t="s">
         <v>4111</v>
       </c>
-      <c r="C1355" s="1" t="s">
+      <c r="D1355" s="1" t="s">
         <v>4112</v>
-      </c>
-      <c r="D1355" s="1" t="s">
-        <v>4113</v>
       </c>
       <c r="E1355" s="1" t="s">
         <v>32</v>
@@ -62163,13 +62163,13 @@
         <v>1355</v>
       </c>
       <c r="B1356" s="1" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C1356" s="1" t="s">
         <v>4114</v>
       </c>
-      <c r="C1356" s="1" t="s">
+      <c r="D1356" s="1" t="s">
         <v>4115</v>
-      </c>
-      <c r="D1356" s="1" t="s">
-        <v>4116</v>
       </c>
       <c r="E1356" s="1" t="s">
         <v>164</v>
@@ -62198,13 +62198,13 @@
         <v>1356</v>
       </c>
       <c r="B1357" s="1" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C1357" s="1" t="s">
         <v>4117</v>
       </c>
-      <c r="C1357" s="1" t="s">
+      <c r="D1357" s="1" t="s">
         <v>4118</v>
-      </c>
-      <c r="D1357" s="1" t="s">
-        <v>4119</v>
       </c>
       <c r="E1357" s="1" t="s">
         <v>64</v>
@@ -62233,13 +62233,13 @@
         <v>1357</v>
       </c>
       <c r="B1358" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="C1358" s="1" t="s">
         <v>4120</v>
       </c>
-      <c r="C1358" s="1" t="s">
+      <c r="D1358" s="1" t="s">
         <v>4121</v>
-      </c>
-      <c r="D1358" s="1" t="s">
-        <v>4122</v>
       </c>
       <c r="E1358" s="1" t="s">
         <v>37</v>
@@ -62268,13 +62268,13 @@
         <v>1358</v>
       </c>
       <c r="B1359" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="C1359" s="1" t="s">
         <v>4123</v>
       </c>
-      <c r="C1359" s="1" t="s">
+      <c r="D1359" s="1" t="s">
         <v>4124</v>
-      </c>
-      <c r="D1359" s="1" t="s">
-        <v>4125</v>
       </c>
       <c r="E1359" s="1" t="s">
         <v>115</v>
@@ -62303,13 +62303,13 @@
         <v>1359</v>
       </c>
       <c r="B1360" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C1360" s="1" t="s">
         <v>4126</v>
       </c>
-      <c r="C1360" s="1" t="s">
+      <c r="D1360" s="1" t="s">
         <v>4127</v>
-      </c>
-      <c r="D1360" s="1" t="s">
-        <v>4128</v>
       </c>
       <c r="E1360" s="1" t="s">
         <v>37</v>
@@ -62338,13 +62338,13 @@
         <v>1360</v>
       </c>
       <c r="B1361" s="1" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C1361" s="1" t="s">
         <v>4129</v>
       </c>
-      <c r="C1361" s="1" t="s">
+      <c r="D1361" s="1" t="s">
         <v>4130</v>
-      </c>
-      <c r="D1361" s="1" t="s">
-        <v>4131</v>
       </c>
       <c r="E1361" s="1" t="s">
         <v>26</v>
@@ -62373,13 +62373,13 @@
         <v>1361</v>
       </c>
       <c r="B1362" s="1" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C1362" s="1" t="s">
         <v>4132</v>
       </c>
-      <c r="C1362" s="1" t="s">
+      <c r="D1362" s="1" t="s">
         <v>4133</v>
-      </c>
-      <c r="D1362" s="1" t="s">
-        <v>4134</v>
       </c>
       <c r="E1362" s="1" t="s">
         <v>14</v>
@@ -62408,13 +62408,13 @@
         <v>1362</v>
       </c>
       <c r="B1363" s="1" t="s">
+        <v>4134</v>
+      </c>
+      <c r="C1363" s="1" t="s">
         <v>4135</v>
       </c>
-      <c r="C1363" s="1" t="s">
+      <c r="D1363" s="1" t="s">
         <v>4136</v>
-      </c>
-      <c r="D1363" s="1" t="s">
-        <v>4137</v>
       </c>
       <c r="E1363" s="1" t="s">
         <v>115</v>
@@ -62443,13 +62443,13 @@
         <v>1363</v>
       </c>
       <c r="B1364" s="1" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C1364" s="1" t="s">
         <v>4138</v>
       </c>
-      <c r="C1364" s="1" t="s">
+      <c r="D1364" s="1" t="s">
         <v>4139</v>
-      </c>
-      <c r="D1364" s="1" t="s">
-        <v>4140</v>
       </c>
       <c r="E1364" s="1" t="s">
         <v>115</v>
@@ -62478,13 +62478,13 @@
         <v>1364</v>
       </c>
       <c r="B1365" s="1" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C1365" s="1" t="s">
         <v>4141</v>
       </c>
-      <c r="C1365" s="1" t="s">
+      <c r="D1365" s="1" t="s">
         <v>4142</v>
-      </c>
-      <c r="D1365" s="1" t="s">
-        <v>4143</v>
       </c>
       <c r="E1365" s="1" t="s">
         <v>20</v>
@@ -62513,13 +62513,13 @@
         <v>1365</v>
       </c>
       <c r="B1366" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C1366" s="1" t="s">
         <v>4144</v>
       </c>
-      <c r="C1366" s="1" t="s">
+      <c r="D1366" s="1" t="s">
         <v>4145</v>
-      </c>
-      <c r="D1366" s="1" t="s">
-        <v>4146</v>
       </c>
       <c r="E1366" s="1" t="s">
         <v>781</v>
@@ -62548,13 +62548,13 @@
         <v>1366</v>
       </c>
       <c r="B1367" s="1" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C1367" s="1" t="s">
         <v>4147</v>
       </c>
-      <c r="C1367" s="1" t="s">
+      <c r="D1367" s="1" t="s">
         <v>4148</v>
-      </c>
-      <c r="D1367" s="1" t="s">
-        <v>4149</v>
       </c>
       <c r="E1367" s="1" t="s">
         <v>92</v>
@@ -62583,13 +62583,13 @@
         <v>1367</v>
       </c>
       <c r="B1368" s="1" t="s">
+        <v>4149</v>
+      </c>
+      <c r="C1368" s="1" t="s">
         <v>4150</v>
       </c>
-      <c r="C1368" s="1" t="s">
+      <c r="D1368" s="1" t="s">
         <v>4151</v>
-      </c>
-      <c r="D1368" s="1" t="s">
-        <v>4152</v>
       </c>
       <c r="E1368" s="1" t="s">
         <v>20</v>
@@ -62618,13 +62618,13 @@
         <v>1368</v>
       </c>
       <c r="B1369" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C1369" s="1" t="s">
         <v>4153</v>
       </c>
-      <c r="C1369" s="1" t="s">
+      <c r="D1369" s="1" t="s">
         <v>4154</v>
-      </c>
-      <c r="D1369" s="1" t="s">
-        <v>4155</v>
       </c>
       <c r="E1369" s="1" t="s">
         <v>20</v>
@@ -62653,13 +62653,13 @@
         <v>1369</v>
       </c>
       <c r="B1370" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C1370" s="1" t="s">
         <v>4156</v>
       </c>
-      <c r="C1370" s="1" t="s">
+      <c r="D1370" s="1" t="s">
         <v>4157</v>
-      </c>
-      <c r="D1370" s="1" t="s">
-        <v>4158</v>
       </c>
       <c r="E1370" s="1" t="s">
         <v>26</v>
@@ -62688,13 +62688,13 @@
         <v>1370</v>
       </c>
       <c r="B1371" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="C1371" s="1" t="s">
         <v>4159</v>
       </c>
-      <c r="C1371" s="1" t="s">
+      <c r="D1371" s="1" t="s">
         <v>4160</v>
-      </c>
-      <c r="D1371" s="1" t="s">
-        <v>4161</v>
       </c>
       <c r="E1371" s="1" t="s">
         <v>164</v>
@@ -62723,13 +62723,13 @@
         <v>1371</v>
       </c>
       <c r="B1372" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C1372" s="1" t="s">
         <v>4162</v>
       </c>
-      <c r="C1372" s="1" t="s">
+      <c r="D1372" s="1" t="s">
         <v>4163</v>
-      </c>
-      <c r="D1372" s="1" t="s">
-        <v>4164</v>
       </c>
       <c r="E1372" s="1" t="s">
         <v>48</v>
@@ -62758,13 +62758,13 @@
         <v>1372</v>
       </c>
       <c r="B1373" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C1373" s="1" t="s">
         <v>4165</v>
       </c>
-      <c r="C1373" s="1" t="s">
+      <c r="D1373" s="1" t="s">
         <v>4166</v>
-      </c>
-      <c r="D1373" s="1" t="s">
-        <v>4167</v>
       </c>
       <c r="E1373" s="1" t="s">
         <v>108</v>
@@ -62793,13 +62793,13 @@
         <v>1373</v>
       </c>
       <c r="B1374" s="1" t="s">
+        <v>4167</v>
+      </c>
+      <c r="C1374" s="1" t="s">
         <v>4168</v>
       </c>
-      <c r="C1374" s="1" t="s">
+      <c r="D1374" s="1" t="s">
         <v>4169</v>
-      </c>
-      <c r="D1374" s="1" t="s">
-        <v>4170</v>
       </c>
       <c r="E1374" s="1" t="s">
         <v>26</v>
@@ -62828,13 +62828,13 @@
         <v>1374</v>
       </c>
       <c r="B1375" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C1375" s="1" t="s">
         <v>4171</v>
       </c>
-      <c r="C1375" s="1" t="s">
+      <c r="D1375" s="1" t="s">
         <v>4172</v>
-      </c>
-      <c r="D1375" s="1" t="s">
-        <v>4173</v>
       </c>
       <c r="E1375" s="1" t="s">
         <v>20</v>
@@ -62863,13 +62863,13 @@
         <v>1375</v>
       </c>
       <c r="B1376" s="1" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C1376" s="1" t="s">
         <v>4174</v>
       </c>
-      <c r="C1376" s="1" t="s">
+      <c r="D1376" s="1" t="s">
         <v>4175</v>
-      </c>
-      <c r="D1376" s="1" t="s">
-        <v>4176</v>
       </c>
       <c r="E1376" s="1" t="s">
         <v>115</v>
@@ -62898,13 +62898,13 @@
         <v>1376</v>
       </c>
       <c r="B1377" s="1" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C1377" s="1" t="s">
         <v>4177</v>
       </c>
-      <c r="C1377" s="1" t="s">
+      <c r="D1377" s="1" t="s">
         <v>4178</v>
-      </c>
-      <c r="D1377" s="1" t="s">
-        <v>4179</v>
       </c>
       <c r="E1377" s="1" t="s">
         <v>26</v>
@@ -62933,13 +62933,13 @@
         <v>1377</v>
       </c>
       <c r="B1378" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C1378" s="1" t="s">
         <v>4180</v>
       </c>
-      <c r="C1378" s="1" t="s">
+      <c r="D1378" s="1" t="s">
         <v>4181</v>
-      </c>
-      <c r="D1378" s="1" t="s">
-        <v>4182</v>
       </c>
       <c r="E1378" s="1" t="s">
         <v>26</v>
@@ -62968,13 +62968,13 @@
         <v>1378</v>
       </c>
       <c r="B1379" s="1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C1379" s="1" t="s">
         <v>4183</v>
       </c>
-      <c r="C1379" s="1" t="s">
+      <c r="D1379" s="1" t="s">
         <v>4184</v>
-      </c>
-      <c r="D1379" s="1" t="s">
-        <v>4185</v>
       </c>
       <c r="E1379" s="1" t="s">
         <v>26</v>
@@ -63003,13 +63003,13 @@
         <v>1379</v>
       </c>
       <c r="B1380" s="1" t="s">
+        <v>4185</v>
+      </c>
+      <c r="C1380" s="1" t="s">
         <v>4186</v>
       </c>
-      <c r="C1380" s="1" t="s">
+      <c r="D1380" s="1" t="s">
         <v>4187</v>
-      </c>
-      <c r="D1380" s="1" t="s">
-        <v>4188</v>
       </c>
       <c r="E1380" s="1" t="s">
         <v>26</v>
@@ -63038,13 +63038,13 @@
         <v>1380</v>
       </c>
       <c r="B1381" s="1" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C1381" s="1" t="s">
         <v>4189</v>
       </c>
-      <c r="C1381" s="1" t="s">
+      <c r="D1381" s="1" t="s">
         <v>4190</v>
-      </c>
-      <c r="D1381" s="1" t="s">
-        <v>4191</v>
       </c>
       <c r="E1381" s="1" t="s">
         <v>26</v>
@@ -63073,13 +63073,13 @@
         <v>1381</v>
       </c>
       <c r="B1382" s="1" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C1382" s="1" t="s">
         <v>4192</v>
       </c>
-      <c r="C1382" s="1" t="s">
+      <c r="D1382" s="1" t="s">
         <v>4193</v>
-      </c>
-      <c r="D1382" s="1" t="s">
-        <v>4194</v>
       </c>
       <c r="E1382" s="1" t="s">
         <v>26</v>
@@ -63108,13 +63108,13 @@
         <v>1382</v>
       </c>
       <c r="B1383" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C1383" s="1" t="s">
         <v>4195</v>
       </c>
-      <c r="C1383" s="1" t="s">
+      <c r="D1383" s="1" t="s">
         <v>4196</v>
-      </c>
-      <c r="D1383" s="1" t="s">
-        <v>4197</v>
       </c>
       <c r="E1383" s="1" t="s">
         <v>26</v>
@@ -63143,13 +63143,13 @@
         <v>1383</v>
       </c>
       <c r="B1384" s="1" t="s">
+        <v>4197</v>
+      </c>
+      <c r="C1384" s="1" t="s">
         <v>4198</v>
       </c>
-      <c r="C1384" s="1" t="s">
+      <c r="D1384" s="1" t="s">
         <v>4199</v>
-      </c>
-      <c r="D1384" s="1" t="s">
-        <v>4200</v>
       </c>
       <c r="E1384" s="1" t="s">
         <v>26</v>
@@ -63178,13 +63178,13 @@
         <v>1384</v>
       </c>
       <c r="B1385" s="1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C1385" s="1" t="s">
         <v>4201</v>
       </c>
-      <c r="C1385" s="1" t="s">
+      <c r="D1385" s="1" t="s">
         <v>4202</v>
-      </c>
-      <c r="D1385" s="1" t="s">
-        <v>4203</v>
       </c>
       <c r="E1385" s="1" t="s">
         <v>26</v>
@@ -63213,13 +63213,13 @@
         <v>1385</v>
       </c>
       <c r="B1386" s="1" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C1386" s="1" t="s">
         <v>4204</v>
       </c>
-      <c r="C1386" s="1" t="s">
+      <c r="D1386" s="1" t="s">
         <v>4205</v>
-      </c>
-      <c r="D1386" s="1" t="s">
-        <v>4206</v>
       </c>
       <c r="E1386" s="1" t="s">
         <v>26</v>
@@ -63248,13 +63248,13 @@
         <v>1386</v>
       </c>
       <c r="B1387" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C1387" s="1" t="s">
         <v>4207</v>
       </c>
-      <c r="C1387" s="1" t="s">
+      <c r="D1387" s="1" t="s">
         <v>4208</v>
-      </c>
-      <c r="D1387" s="1" t="s">
-        <v>4209</v>
       </c>
       <c r="E1387" s="1" t="s">
         <v>26</v>
@@ -63283,13 +63283,13 @@
         <v>1387</v>
       </c>
       <c r="B1388" s="1" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C1388" s="1" t="s">
         <v>4210</v>
       </c>
-      <c r="C1388" s="1" t="s">
+      <c r="D1388" s="1" t="s">
         <v>4211</v>
-      </c>
-      <c r="D1388" s="1" t="s">
-        <v>4212</v>
       </c>
       <c r="E1388" s="1" t="s">
         <v>26</v>
@@ -63318,13 +63318,13 @@
         <v>1388</v>
       </c>
       <c r="B1389" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C1389" s="1" t="s">
         <v>4213</v>
       </c>
-      <c r="C1389" s="1" t="s">
+      <c r="D1389" s="1" t="s">
         <v>4214</v>
-      </c>
-      <c r="D1389" s="1" t="s">
-        <v>4215</v>
       </c>
       <c r="E1389" s="1" t="s">
         <v>26</v>
@@ -63353,13 +63353,13 @@
         <v>1389</v>
       </c>
       <c r="B1390" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="C1390" s="1" t="s">
         <v>4216</v>
       </c>
-      <c r="C1390" s="1" t="s">
+      <c r="D1390" s="1" t="s">
         <v>4217</v>
-      </c>
-      <c r="D1390" s="1" t="s">
-        <v>4218</v>
       </c>
       <c r="E1390" s="1" t="s">
         <v>26</v>
@@ -63388,13 +63388,13 @@
         <v>1390</v>
       </c>
       <c r="B1391" s="1" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C1391" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C1391" s="1" t="s">
+      <c r="D1391" s="1" t="s">
         <v>4220</v>
-      </c>
-      <c r="D1391" s="1" t="s">
-        <v>4221</v>
       </c>
       <c r="E1391" s="1" t="s">
         <v>200</v>
@@ -63423,13 +63423,13 @@
         <v>1391</v>
       </c>
       <c r="B1392" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C1392" s="1" t="s">
         <v>4222</v>
       </c>
-      <c r="C1392" s="1" t="s">
+      <c r="D1392" s="1" t="s">
         <v>4223</v>
-      </c>
-      <c r="D1392" s="1" t="s">
-        <v>4224</v>
       </c>
       <c r="E1392" s="1" t="s">
         <v>26</v>
@@ -63458,13 +63458,13 @@
         <v>1392</v>
       </c>
       <c r="B1393" s="1" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C1393" s="1" t="s">
         <v>4225</v>
       </c>
-      <c r="C1393" s="1" t="s">
+      <c r="D1393" s="1" t="s">
         <v>4226</v>
-      </c>
-      <c r="D1393" s="1" t="s">
-        <v>4227</v>
       </c>
       <c r="E1393" s="1" t="s">
         <v>26</v>
@@ -63493,13 +63493,13 @@
         <v>1393</v>
       </c>
       <c r="B1394" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C1394" s="1" t="s">
         <v>4228</v>
       </c>
-      <c r="C1394" s="1" t="s">
+      <c r="D1394" s="1" t="s">
         <v>4229</v>
-      </c>
-      <c r="D1394" s="1" t="s">
-        <v>4230</v>
       </c>
       <c r="E1394" s="1" t="s">
         <v>26</v>
@@ -63528,13 +63528,13 @@
         <v>1394</v>
       </c>
       <c r="B1395" s="1" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C1395" s="1" t="s">
         <v>4231</v>
       </c>
-      <c r="C1395" s="1" t="s">
+      <c r="D1395" s="1" t="s">
         <v>4232</v>
-      </c>
-      <c r="D1395" s="1" t="s">
-        <v>4233</v>
       </c>
       <c r="E1395" s="1" t="s">
         <v>164</v>
@@ -63563,13 +63563,13 @@
         <v>1395</v>
       </c>
       <c r="B1396" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C1396" s="1" t="s">
         <v>4234</v>
       </c>
-      <c r="C1396" s="1" t="s">
+      <c r="D1396" s="1" t="s">
         <v>4235</v>
-      </c>
-      <c r="D1396" s="1" t="s">
-        <v>4236</v>
       </c>
       <c r="E1396" s="1" t="s">
         <v>26</v>
@@ -63598,13 +63598,13 @@
         <v>1396</v>
       </c>
       <c r="B1397" s="1" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C1397" s="1" t="s">
         <v>4237</v>
       </c>
-      <c r="C1397" s="1" t="s">
+      <c r="D1397" s="1" t="s">
         <v>4238</v>
-      </c>
-      <c r="D1397" s="1" t="s">
-        <v>4239</v>
       </c>
       <c r="E1397" s="1" t="s">
         <v>92</v>
@@ -63633,13 +63633,13 @@
         <v>1397</v>
       </c>
       <c r="B1398" s="1" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C1398" s="1" t="s">
         <v>4240</v>
       </c>
-      <c r="C1398" s="1" t="s">
+      <c r="D1398" s="1" t="s">
         <v>4241</v>
-      </c>
-      <c r="D1398" s="1" t="s">
-        <v>4242</v>
       </c>
       <c r="E1398" s="1" t="s">
         <v>26</v>
@@ -63668,13 +63668,13 @@
         <v>1398</v>
       </c>
       <c r="B1399" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C1399" s="1" t="s">
         <v>4243</v>
       </c>
-      <c r="C1399" s="1" t="s">
+      <c r="D1399" s="1" t="s">
         <v>4244</v>
-      </c>
-      <c r="D1399" s="1" t="s">
-        <v>4245</v>
       </c>
       <c r="E1399" s="1" t="s">
         <v>164</v>
@@ -63703,13 +63703,13 @@
         <v>1399</v>
       </c>
       <c r="B1400" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="C1400" s="1" t="s">
         <v>4246</v>
       </c>
-      <c r="C1400" s="1" t="s">
+      <c r="D1400" s="1" t="s">
         <v>4247</v>
-      </c>
-      <c r="D1400" s="1" t="s">
-        <v>4248</v>
       </c>
       <c r="E1400" s="1" t="s">
         <v>26</v>
@@ -63738,13 +63738,13 @@
         <v>1400</v>
       </c>
       <c r="B1401" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C1401" s="1" t="s">
         <v>4249</v>
       </c>
-      <c r="C1401" s="1" t="s">
+      <c r="D1401" s="1" t="s">
         <v>4250</v>
-      </c>
-      <c r="D1401" s="1" t="s">
-        <v>4251</v>
       </c>
       <c r="E1401" s="1" t="s">
         <v>26</v>
@@ -63773,13 +63773,13 @@
         <v>1401</v>
       </c>
       <c r="B1402" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="C1402" s="1" t="s">
         <v>4252</v>
       </c>
-      <c r="C1402" s="1" t="s">
+      <c r="D1402" s="1" t="s">
         <v>4253</v>
-      </c>
-      <c r="D1402" s="1" t="s">
-        <v>4254</v>
       </c>
       <c r="E1402" s="1" t="s">
         <v>26</v>
@@ -63808,13 +63808,13 @@
         <v>1402</v>
       </c>
       <c r="B1403" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="C1403" s="1" t="s">
         <v>4255</v>
       </c>
-      <c r="C1403" s="1" t="s">
+      <c r="D1403" s="1" t="s">
         <v>4256</v>
-      </c>
-      <c r="D1403" s="1" t="s">
-        <v>4257</v>
       </c>
       <c r="E1403" s="1" t="s">
         <v>26</v>
@@ -63843,13 +63843,13 @@
         <v>1403</v>
       </c>
       <c r="B1404" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="C1404" s="1" t="s">
         <v>4258</v>
       </c>
-      <c r="C1404" s="1" t="s">
+      <c r="D1404" s="1" t="s">
         <v>4259</v>
-      </c>
-      <c r="D1404" s="1" t="s">
-        <v>4260</v>
       </c>
       <c r="E1404" s="1" t="s">
         <v>115</v>
@@ -63878,13 +63878,13 @@
         <v>1404</v>
       </c>
       <c r="B1405" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="C1405" s="1" t="s">
         <v>4261</v>
       </c>
-      <c r="C1405" s="1" t="s">
+      <c r="D1405" s="1" t="s">
         <v>4262</v>
-      </c>
-      <c r="D1405" s="1" t="s">
-        <v>4263</v>
       </c>
       <c r="E1405" s="1" t="s">
         <v>115</v>
@@ -63913,13 +63913,13 @@
         <v>1405</v>
       </c>
       <c r="B1406" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="C1406" s="1" t="s">
         <v>4264</v>
       </c>
-      <c r="C1406" s="1" t="s">
+      <c r="D1406" s="1" t="s">
         <v>4265</v>
-      </c>
-      <c r="D1406" s="1" t="s">
-        <v>4266</v>
       </c>
       <c r="E1406" s="1" t="s">
         <v>20</v>
@@ -63948,13 +63948,13 @@
         <v>1406</v>
       </c>
       <c r="B1407" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C1407" s="1" t="s">
         <v>4267</v>
       </c>
-      <c r="C1407" s="1" t="s">
+      <c r="D1407" s="1" t="s">
         <v>4268</v>
-      </c>
-      <c r="D1407" s="1" t="s">
-        <v>4269</v>
       </c>
       <c r="E1407" s="1" t="s">
         <v>20</v>
@@ -63983,13 +63983,13 @@
         <v>1407</v>
       </c>
       <c r="B1408" s="1" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C1408" s="1" t="s">
         <v>4270</v>
       </c>
-      <c r="C1408" s="1" t="s">
+      <c r="D1408" s="1" t="s">
         <v>4271</v>
-      </c>
-      <c r="D1408" s="1" t="s">
-        <v>4272</v>
       </c>
       <c r="E1408" s="1" t="s">
         <v>20</v>
@@ -64018,13 +64018,13 @@
         <v>1408</v>
       </c>
       <c r="B1409" s="1" t="s">
+        <v>4272</v>
+      </c>
+      <c r="C1409" s="1" t="s">
         <v>4273</v>
       </c>
-      <c r="C1409" s="1" t="s">
+      <c r="D1409" s="1" t="s">
         <v>4274</v>
-      </c>
-      <c r="D1409" s="1" t="s">
-        <v>4275</v>
       </c>
       <c r="E1409" s="1" t="s">
         <v>32</v>
@@ -64053,13 +64053,13 @@
         <v>1409</v>
       </c>
       <c r="B1410" s="1" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C1410" s="1" t="s">
         <v>4276</v>
       </c>
-      <c r="C1410" s="1" t="s">
+      <c r="D1410" s="1" t="s">
         <v>4277</v>
-      </c>
-      <c r="D1410" s="1" t="s">
-        <v>4278</v>
       </c>
       <c r="E1410" s="1" t="s">
         <v>20</v>
@@ -64088,13 +64088,13 @@
         <v>1410</v>
       </c>
       <c r="B1411" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C1411" s="1" t="s">
         <v>4279</v>
       </c>
-      <c r="C1411" s="1" t="s">
+      <c r="D1411" s="1" t="s">
         <v>4280</v>
-      </c>
-      <c r="D1411" s="1" t="s">
-        <v>4281</v>
       </c>
       <c r="E1411" s="1" t="s">
         <v>32</v>
@@ -64123,13 +64123,13 @@
         <v>1411</v>
       </c>
       <c r="B1412" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="C1412" s="1" t="s">
         <v>4282</v>
       </c>
-      <c r="C1412" s="1" t="s">
+      <c r="D1412" s="1" t="s">
         <v>4283</v>
-      </c>
-      <c r="D1412" s="1" t="s">
-        <v>4284</v>
       </c>
       <c r="E1412" s="1" t="s">
         <v>48</v>
@@ -64158,13 +64158,13 @@
         <v>1412</v>
       </c>
       <c r="B1413" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C1413" s="1" t="s">
         <v>4285</v>
       </c>
-      <c r="C1413" s="1" t="s">
+      <c r="D1413" s="1" t="s">
         <v>4286</v>
-      </c>
-      <c r="D1413" s="1" t="s">
-        <v>4287</v>
       </c>
       <c r="E1413" s="1" t="s">
         <v>26</v>
@@ -64193,13 +64193,13 @@
         <v>1413</v>
       </c>
       <c r="B1414" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="C1414" s="1" t="s">
         <v>4288</v>
       </c>
-      <c r="C1414" s="1" t="s">
+      <c r="D1414" s="1" t="s">
         <v>4289</v>
-      </c>
-      <c r="D1414" s="1" t="s">
-        <v>4290</v>
       </c>
       <c r="E1414" s="1" t="s">
         <v>115</v>
@@ -64228,13 +64228,13 @@
         <v>1414</v>
       </c>
       <c r="B1415" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C1415" s="1" t="s">
         <v>4291</v>
       </c>
-      <c r="C1415" s="1" t="s">
+      <c r="D1415" s="1" t="s">
         <v>4292</v>
-      </c>
-      <c r="D1415" s="1" t="s">
-        <v>4293</v>
       </c>
       <c r="E1415" s="1" t="s">
         <v>14</v>
@@ -64263,13 +64263,13 @@
         <v>1415</v>
       </c>
       <c r="B1416" s="1" t="s">
+        <v>4293</v>
+      </c>
+      <c r="C1416" s="1" t="s">
         <v>4294</v>
       </c>
-      <c r="C1416" s="1" t="s">
+      <c r="D1416" s="1" t="s">
         <v>4295</v>
-      </c>
-      <c r="D1416" s="1" t="s">
-        <v>4296</v>
       </c>
       <c r="E1416" s="1" t="s">
         <v>20</v>
@@ -64298,13 +64298,13 @@
         <v>1416</v>
       </c>
       <c r="B1417" s="1" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C1417" s="1" t="s">
         <v>4297</v>
       </c>
-      <c r="C1417" s="1" t="s">
+      <c r="D1417" s="1" t="s">
         <v>4298</v>
-      </c>
-      <c r="D1417" s="1" t="s">
-        <v>4299</v>
       </c>
       <c r="E1417" s="1" t="s">
         <v>232</v>
@@ -64333,13 +64333,13 @@
         <v>1417</v>
       </c>
       <c r="B1418" s="1" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C1418" s="1" t="s">
         <v>4300</v>
       </c>
-      <c r="C1418" s="1" t="s">
+      <c r="D1418" s="1" t="s">
         <v>4301</v>
-      </c>
-      <c r="D1418" s="1" t="s">
-        <v>4302</v>
       </c>
       <c r="E1418" s="1" t="s">
         <v>26</v>
@@ -64368,13 +64368,13 @@
         <v>1418</v>
       </c>
       <c r="B1419" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1419" s="1" t="s">
         <v>4303</v>
       </c>
-      <c r="C1419" s="1" t="s">
+      <c r="D1419" s="1" t="s">
         <v>4304</v>
-      </c>
-      <c r="D1419" s="1" t="s">
-        <v>4305</v>
       </c>
       <c r="E1419" s="1" t="s">
         <v>57</v>
@@ -64403,13 +64403,13 @@
         <v>1419</v>
       </c>
       <c r="B1420" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C1420" s="1" t="s">
         <v>4306</v>
       </c>
-      <c r="C1420" s="1" t="s">
+      <c r="D1420" s="1" t="s">
         <v>4307</v>
-      </c>
-      <c r="D1420" s="1" t="s">
-        <v>4308</v>
       </c>
       <c r="E1420" s="1" t="s">
         <v>108</v>
@@ -64438,13 +64438,13 @@
         <v>1420</v>
       </c>
       <c r="B1421" s="1" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C1421" s="1" t="s">
         <v>4309</v>
       </c>
-      <c r="C1421" s="1" t="s">
+      <c r="D1421" s="1" t="s">
         <v>4310</v>
-      </c>
-      <c r="D1421" s="1" t="s">
-        <v>4311</v>
       </c>
       <c r="E1421" s="1" t="s">
         <v>20</v>
@@ -64473,13 +64473,13 @@
         <v>1421</v>
       </c>
       <c r="B1422" s="1" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C1422" s="1" t="s">
         <v>4312</v>
       </c>
-      <c r="C1422" s="1" t="s">
+      <c r="D1422" s="1" t="s">
         <v>4313</v>
-      </c>
-      <c r="D1422" s="1" t="s">
-        <v>4314</v>
       </c>
       <c r="E1422" s="1" t="s">
         <v>20</v>
@@ -64508,13 +64508,13 @@
         <v>1422</v>
       </c>
       <c r="B1423" s="1" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C1423" s="1" t="s">
         <v>4315</v>
       </c>
-      <c r="C1423" s="1" t="s">
+      <c r="D1423" s="1" t="s">
         <v>4316</v>
-      </c>
-      <c r="D1423" s="1" t="s">
-        <v>4317</v>
       </c>
       <c r="E1423" s="1" t="s">
         <v>20</v>
@@ -64543,13 +64543,13 @@
         <v>1423</v>
       </c>
       <c r="B1424" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C1424" s="1" t="s">
         <v>4318</v>
       </c>
-      <c r="C1424" s="1" t="s">
+      <c r="D1424" s="1" t="s">
         <v>4319</v>
-      </c>
-      <c r="D1424" s="1" t="s">
-        <v>4320</v>
       </c>
       <c r="E1424" s="1" t="s">
         <v>20</v>
@@ -64578,13 +64578,13 @@
         <v>1424</v>
       </c>
       <c r="B1425" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C1425" s="1" t="s">
         <v>4321</v>
       </c>
-      <c r="C1425" s="1" t="s">
+      <c r="D1425" s="1" t="s">
         <v>4322</v>
-      </c>
-      <c r="D1425" s="1" t="s">
-        <v>4323</v>
       </c>
       <c r="E1425" s="1" t="s">
         <v>20</v>
@@ -64613,13 +64613,13 @@
         <v>1425</v>
       </c>
       <c r="B1426" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C1426" s="1" t="s">
         <v>4324</v>
       </c>
-      <c r="C1426" s="1" t="s">
+      <c r="D1426" s="1" t="s">
         <v>4325</v>
-      </c>
-      <c r="D1426" s="1" t="s">
-        <v>4326</v>
       </c>
       <c r="E1426" s="1" t="s">
         <v>64</v>
@@ -64648,13 +64648,13 @@
         <v>1426</v>
       </c>
       <c r="B1427" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C1427" s="1" t="s">
         <v>4327</v>
       </c>
-      <c r="C1427" s="1" t="s">
+      <c r="D1427" s="1" t="s">
         <v>4328</v>
-      </c>
-      <c r="D1427" s="1" t="s">
-        <v>4329</v>
       </c>
       <c r="E1427" s="1" t="s">
         <v>57</v>
@@ -64683,13 +64683,13 @@
         <v>1427</v>
       </c>
       <c r="B1428" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C1428" s="1" t="s">
         <v>4330</v>
       </c>
-      <c r="C1428" s="1" t="s">
+      <c r="D1428" s="1" t="s">
         <v>4331</v>
-      </c>
-      <c r="D1428" s="1" t="s">
-        <v>4332</v>
       </c>
       <c r="E1428" s="1" t="s">
         <v>115</v>
@@ -64718,13 +64718,13 @@
         <v>1428</v>
       </c>
       <c r="B1429" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C1429" s="1" t="s">
         <v>4333</v>
       </c>
-      <c r="C1429" s="1" t="s">
+      <c r="D1429" s="1" t="s">
         <v>4334</v>
-      </c>
-      <c r="D1429" s="1" t="s">
-        <v>4335</v>
       </c>
       <c r="E1429" s="1" t="s">
         <v>53</v>
@@ -64753,13 +64753,13 @@
         <v>1429</v>
       </c>
       <c r="B1430" s="1" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C1430" s="1" t="s">
         <v>4336</v>
       </c>
-      <c r="C1430" s="1" t="s">
+      <c r="D1430" s="1" t="s">
         <v>4337</v>
-      </c>
-      <c r="D1430" s="1" t="s">
-        <v>4338</v>
       </c>
       <c r="E1430" s="1" t="s">
         <v>92</v>
@@ -64788,13 +64788,13 @@
         <v>1430</v>
       </c>
       <c r="B1431" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="C1431" s="1" t="s">
         <v>4339</v>
       </c>
-      <c r="C1431" s="1" t="s">
+      <c r="D1431" s="1" t="s">
         <v>4340</v>
-      </c>
-      <c r="D1431" s="1" t="s">
-        <v>4341</v>
       </c>
       <c r="E1431" s="1" t="s">
         <v>26</v>
@@ -64823,13 +64823,13 @@
         <v>1431</v>
       </c>
       <c r="B1432" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="C1432" s="1" t="s">
         <v>4342</v>
       </c>
-      <c r="C1432" s="1" t="s">
+      <c r="D1432" s="1" t="s">
         <v>4343</v>
-      </c>
-      <c r="D1432" s="1" t="s">
-        <v>4344</v>
       </c>
       <c r="E1432" s="1" t="s">
         <v>37</v>
@@ -64858,13 +64858,13 @@
         <v>1432</v>
       </c>
       <c r="B1433" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C1433" s="1" t="s">
         <v>4345</v>
       </c>
-      <c r="C1433" s="1" t="s">
+      <c r="D1433" s="1" t="s">
         <v>4346</v>
-      </c>
-      <c r="D1433" s="1" t="s">
-        <v>4347</v>
       </c>
       <c r="E1433" s="1" t="s">
         <v>53</v>
@@ -64893,13 +64893,13 @@
         <v>1433</v>
       </c>
       <c r="B1434" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C1434" s="1" t="s">
         <v>4348</v>
       </c>
-      <c r="C1434" s="1" t="s">
+      <c r="D1434" s="1" t="s">
         <v>4349</v>
-      </c>
-      <c r="D1434" s="1" t="s">
-        <v>4350</v>
       </c>
       <c r="E1434" s="1" t="s">
         <v>20</v>
@@ -64928,13 +64928,13 @@
         <v>1434</v>
       </c>
       <c r="B1435" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C1435" s="1" t="s">
         <v>4351</v>
       </c>
-      <c r="C1435" s="1" t="s">
+      <c r="D1435" s="1" t="s">
         <v>4352</v>
-      </c>
-      <c r="D1435" s="1" t="s">
-        <v>4353</v>
       </c>
       <c r="E1435" s="1" t="s">
         <v>37</v>
@@ -64963,13 +64963,13 @@
         <v>1435</v>
       </c>
       <c r="B1436" s="1" t="s">
+        <v>4353</v>
+      </c>
+      <c r="C1436" s="1" t="s">
         <v>4354</v>
       </c>
-      <c r="C1436" s="1" t="s">
+      <c r="D1436" s="1" t="s">
         <v>4355</v>
-      </c>
-      <c r="D1436" s="1" t="s">
-        <v>4356</v>
       </c>
       <c r="E1436" s="1" t="s">
         <v>315</v>
@@ -64998,13 +64998,13 @@
         <v>1436</v>
       </c>
       <c r="B1437" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C1437" s="1" t="s">
         <v>4357</v>
       </c>
-      <c r="C1437" s="1" t="s">
+      <c r="D1437" s="1" t="s">
         <v>4358</v>
-      </c>
-      <c r="D1437" s="1" t="s">
-        <v>4359</v>
       </c>
       <c r="E1437" s="1" t="s">
         <v>14</v>
@@ -65033,13 +65033,13 @@
         <v>1437</v>
       </c>
       <c r="B1438" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="C1438" s="1" t="s">
         <v>4360</v>
       </c>
-      <c r="C1438" s="1" t="s">
+      <c r="D1438" s="1" t="s">
         <v>4361</v>
-      </c>
-      <c r="D1438" s="1" t="s">
-        <v>4362</v>
       </c>
       <c r="E1438" s="1" t="s">
         <v>115</v>
@@ -65068,13 +65068,13 @@
         <v>1438</v>
       </c>
       <c r="B1439" s="1" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C1439" s="1" t="s">
         <v>4363</v>
       </c>
-      <c r="C1439" s="1" t="s">
+      <c r="D1439" s="1" t="s">
         <v>4364</v>
-      </c>
-      <c r="D1439" s="1" t="s">
-        <v>4365</v>
       </c>
       <c r="E1439" s="1" t="s">
         <v>20</v>
@@ -65103,13 +65103,13 @@
         <v>1439</v>
       </c>
       <c r="B1440" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="C1440" s="1" t="s">
         <v>4366</v>
       </c>
-      <c r="C1440" s="1" t="s">
+      <c r="D1440" s="1" t="s">
         <v>4367</v>
-      </c>
-      <c r="D1440" s="1" t="s">
-        <v>4368</v>
       </c>
       <c r="E1440" s="1" t="s">
         <v>781</v>
@@ -65138,13 +65138,13 @@
         <v>1440</v>
       </c>
       <c r="B1441" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C1441" s="1" t="s">
         <v>4369</v>
       </c>
-      <c r="C1441" s="1" t="s">
+      <c r="D1441" s="1" t="s">
         <v>4370</v>
-      </c>
-      <c r="D1441" s="1" t="s">
-        <v>4371</v>
       </c>
       <c r="E1441" s="1" t="s">
         <v>20</v>
@@ -65173,13 +65173,13 @@
         <v>1441</v>
       </c>
       <c r="B1442" s="1" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C1442" s="1" t="s">
         <v>4372</v>
       </c>
-      <c r="C1442" s="1" t="s">
+      <c r="D1442" s="1" t="s">
         <v>4373</v>
-      </c>
-      <c r="D1442" s="1" t="s">
-        <v>4374</v>
       </c>
       <c r="E1442" s="1" t="s">
         <v>26</v>
@@ -65208,13 +65208,13 @@
         <v>1442</v>
       </c>
       <c r="B1443" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="C1443" s="1" t="s">
         <v>4375</v>
       </c>
-      <c r="C1443" s="1" t="s">
+      <c r="D1443" s="1" t="s">
         <v>4376</v>
-      </c>
-      <c r="D1443" s="1" t="s">
-        <v>4377</v>
       </c>
       <c r="E1443" s="1" t="s">
         <v>14</v>
@@ -65243,13 +65243,13 @@
         <v>1443</v>
       </c>
       <c r="B1444" s="1" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C1444" s="1" t="s">
         <v>4378</v>
       </c>
-      <c r="C1444" s="1" t="s">
+      <c r="D1444" s="1" t="s">
         <v>4379</v>
-      </c>
-      <c r="D1444" s="1" t="s">
-        <v>4380</v>
       </c>
       <c r="E1444" s="1" t="s">
         <v>1362</v>
@@ -65278,13 +65278,13 @@
         <v>1444</v>
       </c>
       <c r="B1445" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C1445" s="1" t="s">
         <v>4381</v>
       </c>
-      <c r="C1445" s="1" t="s">
+      <c r="D1445" s="1" t="s">
         <v>4382</v>
-      </c>
-      <c r="D1445" s="1" t="s">
-        <v>4383</v>
       </c>
       <c r="E1445" s="1" t="s">
         <v>20</v>
@@ -65313,13 +65313,13 @@
         <v>1445</v>
       </c>
       <c r="B1446" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C1446" s="1" t="s">
         <v>4384</v>
       </c>
-      <c r="C1446" s="1" t="s">
+      <c r="D1446" s="1" t="s">
         <v>4385</v>
-      </c>
-      <c r="D1446" s="1" t="s">
-        <v>4386</v>
       </c>
       <c r="E1446" s="1" t="s">
         <v>26</v>
@@ -65348,13 +65348,13 @@
         <v>1446</v>
       </c>
       <c r="B1447" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C1447" s="1" t="s">
         <v>4387</v>
       </c>
-      <c r="C1447" s="1" t="s">
+      <c r="D1447" s="1" t="s">
         <v>4388</v>
-      </c>
-      <c r="D1447" s="1" t="s">
-        <v>4389</v>
       </c>
       <c r="E1447" s="1" t="s">
         <v>92</v>
@@ -65383,13 +65383,13 @@
         <v>1447</v>
       </c>
       <c r="B1448" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="C1448" s="1" t="s">
         <v>4390</v>
       </c>
-      <c r="C1448" s="1" t="s">
+      <c r="D1448" s="1" t="s">
         <v>4391</v>
-      </c>
-      <c r="D1448" s="1" t="s">
-        <v>4392</v>
       </c>
       <c r="E1448" s="1" t="s">
         <v>20</v>
@@ -65418,13 +65418,13 @@
         <v>1448</v>
       </c>
       <c r="B1449" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C1449" s="1" t="s">
         <v>4393</v>
       </c>
-      <c r="C1449" s="1" t="s">
+      <c r="D1449" s="1" t="s">
         <v>4394</v>
-      </c>
-      <c r="D1449" s="1" t="s">
-        <v>4395</v>
       </c>
       <c r="E1449" s="1" t="s">
         <v>92</v>
@@ -65453,13 +65453,13 @@
         <v>1449</v>
       </c>
       <c r="B1450" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C1450" s="1" t="s">
         <v>4396</v>
       </c>
-      <c r="C1450" s="1" t="s">
+      <c r="D1450" s="1" t="s">
         <v>4397</v>
-      </c>
-      <c r="D1450" s="1" t="s">
-        <v>4398</v>
       </c>
       <c r="E1450" s="1" t="s">
         <v>1362</v>
@@ -65488,13 +65488,13 @@
         <v>1450</v>
       </c>
       <c r="B1451" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C1451" s="1" t="s">
         <v>4399</v>
       </c>
-      <c r="C1451" s="1" t="s">
+      <c r="D1451" s="1" t="s">
         <v>4400</v>
-      </c>
-      <c r="D1451" s="1" t="s">
-        <v>4401</v>
       </c>
       <c r="E1451" s="1" t="s">
         <v>64</v>
@@ -65523,13 +65523,13 @@
         <v>1451</v>
       </c>
       <c r="B1452" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C1452" s="1" t="s">
         <v>4402</v>
       </c>
-      <c r="C1452" s="1" t="s">
+      <c r="D1452" s="1" t="s">
         <v>4403</v>
-      </c>
-      <c r="D1452" s="1" t="s">
-        <v>4404</v>
       </c>
       <c r="E1452" s="1" t="s">
         <v>20</v>
@@ -65558,13 +65558,13 @@
         <v>1452</v>
       </c>
       <c r="B1453" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C1453" s="1" t="s">
         <v>4405</v>
       </c>
-      <c r="C1453" s="1" t="s">
+      <c r="D1453" s="1" t="s">
         <v>4406</v>
-      </c>
-      <c r="D1453" s="1" t="s">
-        <v>4407</v>
       </c>
       <c r="E1453" s="1" t="s">
         <v>20</v>
@@ -65593,13 +65593,13 @@
         <v>1453</v>
       </c>
       <c r="B1454" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C1454" s="1" t="s">
         <v>4408</v>
       </c>
-      <c r="C1454" s="1" t="s">
+      <c r="D1454" s="1" t="s">
         <v>4409</v>
-      </c>
-      <c r="D1454" s="1" t="s">
-        <v>4410</v>
       </c>
       <c r="E1454" s="1" t="s">
         <v>781</v>
@@ -65628,13 +65628,13 @@
         <v>1454</v>
       </c>
       <c r="B1455" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C1455" s="1" t="s">
         <v>4411</v>
       </c>
-      <c r="C1455" s="1" t="s">
+      <c r="D1455" s="1" t="s">
         <v>4412</v>
-      </c>
-      <c r="D1455" s="1" t="s">
-        <v>4413</v>
       </c>
       <c r="E1455" s="1" t="s">
         <v>92</v>
@@ -65663,13 +65663,13 @@
         <v>1455</v>
       </c>
       <c r="B1456" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C1456" s="1" t="s">
         <v>4414</v>
       </c>
-      <c r="C1456" s="1" t="s">
+      <c r="D1456" s="1" t="s">
         <v>4415</v>
-      </c>
-      <c r="D1456" s="1" t="s">
-        <v>4416</v>
       </c>
       <c r="E1456" s="1" t="s">
         <v>20</v>
@@ -65698,13 +65698,13 @@
         <v>1456</v>
       </c>
       <c r="B1457" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C1457" s="1" t="s">
         <v>4417</v>
       </c>
-      <c r="C1457" s="1" t="s">
+      <c r="D1457" s="1" t="s">
         <v>4418</v>
-      </c>
-      <c r="D1457" s="1" t="s">
-        <v>4419</v>
       </c>
       <c r="E1457" s="1" t="s">
         <v>315</v>
@@ -65733,13 +65733,13 @@
         <v>1457</v>
       </c>
       <c r="B1458" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C1458" s="1" t="s">
         <v>4420</v>
       </c>
-      <c r="C1458" s="1" t="s">
+      <c r="D1458" s="1" t="s">
         <v>4421</v>
-      </c>
-      <c r="D1458" s="1" t="s">
-        <v>4422</v>
       </c>
       <c r="E1458" s="1" t="s">
         <v>115</v>
@@ -65768,13 +65768,13 @@
         <v>1458</v>
       </c>
       <c r="B1459" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C1459" s="1" t="s">
         <v>4423</v>
       </c>
-      <c r="C1459" s="1" t="s">
+      <c r="D1459" s="1" t="s">
         <v>4424</v>
-      </c>
-      <c r="D1459" s="1" t="s">
-        <v>4425</v>
       </c>
       <c r="E1459" s="1" t="s">
         <v>115</v>
@@ -65803,13 +65803,13 @@
         <v>1459</v>
       </c>
       <c r="B1460" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C1460" s="1" t="s">
         <v>4426</v>
       </c>
-      <c r="C1460" s="1" t="s">
+      <c r="D1460" s="1" t="s">
         <v>4427</v>
-      </c>
-      <c r="D1460" s="1" t="s">
-        <v>4428</v>
       </c>
       <c r="E1460" s="1" t="s">
         <v>20</v>
@@ -65838,13 +65838,13 @@
         <v>1460</v>
       </c>
       <c r="B1461" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C1461" s="1" t="s">
         <v>4429</v>
       </c>
-      <c r="C1461" s="1" t="s">
+      <c r="D1461" s="1" t="s">
         <v>4430</v>
-      </c>
-      <c r="D1461" s="1" t="s">
-        <v>4431</v>
       </c>
       <c r="E1461" s="1" t="s">
         <v>115</v>
@@ -65873,13 +65873,13 @@
         <v>1461</v>
       </c>
       <c r="B1462" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C1462" s="1" t="s">
         <v>4432</v>
       </c>
-      <c r="C1462" s="1" t="s">
+      <c r="D1462" s="1" t="s">
         <v>4433</v>
-      </c>
-      <c r="D1462" s="1" t="s">
-        <v>4434</v>
       </c>
       <c r="E1462" s="1" t="s">
         <v>20</v>
@@ -65908,13 +65908,13 @@
         <v>1462</v>
       </c>
       <c r="B1463" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C1463" s="1" t="s">
         <v>4435</v>
       </c>
-      <c r="C1463" s="1" t="s">
+      <c r="D1463" s="1" t="s">
         <v>4436</v>
-      </c>
-      <c r="D1463" s="1" t="s">
-        <v>4437</v>
       </c>
       <c r="E1463" s="1" t="s">
         <v>232</v>
@@ -65943,13 +65943,13 @@
         <v>1463</v>
       </c>
       <c r="B1464" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C1464" s="1" t="s">
         <v>4438</v>
       </c>
-      <c r="C1464" s="1" t="s">
+      <c r="D1464" s="1" t="s">
         <v>4439</v>
-      </c>
-      <c r="D1464" s="1" t="s">
-        <v>4440</v>
       </c>
       <c r="E1464" s="1" t="s">
         <v>20</v>
@@ -65978,13 +65978,13 @@
         <v>1464</v>
       </c>
       <c r="B1465" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C1465" s="1" t="s">
         <v>4441</v>
       </c>
-      <c r="C1465" s="1" t="s">
+      <c r="D1465" s="1" t="s">
         <v>4442</v>
-      </c>
-      <c r="D1465" s="1" t="s">
-        <v>4443</v>
       </c>
       <c r="E1465" s="1" t="s">
         <v>32</v>
@@ -66013,13 +66013,13 @@
         <v>1465</v>
       </c>
       <c r="B1466" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C1466" s="1" t="s">
         <v>4444</v>
       </c>
-      <c r="C1466" s="1" t="s">
+      <c r="D1466" s="1" t="s">
         <v>4445</v>
-      </c>
-      <c r="D1466" s="1" t="s">
-        <v>4446</v>
       </c>
       <c r="E1466" s="1" t="s">
         <v>87</v>
@@ -66048,13 +66048,13 @@
         <v>1466</v>
       </c>
       <c r="B1467" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C1467" s="1" t="s">
         <v>4447</v>
       </c>
-      <c r="C1467" s="1" t="s">
+      <c r="D1467" s="1" t="s">
         <v>4448</v>
-      </c>
-      <c r="D1467" s="1" t="s">
-        <v>4449</v>
       </c>
       <c r="E1467" s="1" t="s">
         <v>92</v>
@@ -66083,13 +66083,13 @@
         <v>1467</v>
       </c>
       <c r="B1468" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C1468" s="1" t="s">
         <v>4450</v>
       </c>
-      <c r="C1468" s="1" t="s">
+      <c r="D1468" s="1" t="s">
         <v>4451</v>
-      </c>
-      <c r="D1468" s="1" t="s">
-        <v>4452</v>
       </c>
       <c r="E1468" s="1" t="s">
         <v>20</v>
@@ -66118,13 +66118,13 @@
         <v>1468</v>
       </c>
       <c r="B1469" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C1469" s="1" t="s">
         <v>4453</v>
       </c>
-      <c r="C1469" s="1" t="s">
+      <c r="D1469" s="1" t="s">
         <v>4454</v>
-      </c>
-      <c r="D1469" s="1" t="s">
-        <v>4455</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>87</v>
@@ -66153,13 +66153,13 @@
         <v>1469</v>
       </c>
       <c r="B1470" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C1470" s="1" t="s">
         <v>4456</v>
       </c>
-      <c r="C1470" s="1" t="s">
+      <c r="D1470" s="1" t="s">
         <v>4457</v>
-      </c>
-      <c r="D1470" s="1" t="s">
-        <v>4458</v>
       </c>
       <c r="E1470" s="1" t="s">
         <v>20</v>
@@ -66188,13 +66188,13 @@
         <v>1470</v>
       </c>
       <c r="B1471" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C1471" s="1" t="s">
         <v>4459</v>
       </c>
-      <c r="C1471" s="1" t="s">
+      <c r="D1471" s="1" t="s">
         <v>4460</v>
-      </c>
-      <c r="D1471" s="1" t="s">
-        <v>4461</v>
       </c>
       <c r="E1471" s="1" t="s">
         <v>92</v>
@@ -66223,13 +66223,13 @@
         <v>1471</v>
       </c>
       <c r="B1472" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C1472" s="1" t="s">
         <v>4462</v>
       </c>
-      <c r="C1472" s="1" t="s">
+      <c r="D1472" s="1" t="s">
         <v>4463</v>
-      </c>
-      <c r="D1472" s="1" t="s">
-        <v>4464</v>
       </c>
       <c r="E1472" s="1" t="s">
         <v>14</v>
@@ -66258,13 +66258,13 @@
         <v>1472</v>
       </c>
       <c r="B1473" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C1473" s="1" t="s">
         <v>4465</v>
       </c>
-      <c r="C1473" s="1" t="s">
+      <c r="D1473" s="1" t="s">
         <v>4466</v>
-      </c>
-      <c r="D1473" s="1" t="s">
-        <v>4467</v>
       </c>
       <c r="E1473" s="1" t="s">
         <v>315</v>
@@ -66293,13 +66293,13 @@
         <v>1473</v>
       </c>
       <c r="B1474" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C1474" s="1" t="s">
         <v>4468</v>
       </c>
-      <c r="C1474" s="1" t="s">
+      <c r="D1474" s="1" t="s">
         <v>4469</v>
-      </c>
-      <c r="D1474" s="1" t="s">
-        <v>4470</v>
       </c>
       <c r="E1474" s="1" t="s">
         <v>108</v>
@@ -66328,13 +66328,13 @@
         <v>1474</v>
       </c>
       <c r="B1475" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C1475" s="1" t="s">
         <v>4471</v>
       </c>
-      <c r="C1475" s="1" t="s">
+      <c r="D1475" s="1" t="s">
         <v>4472</v>
-      </c>
-      <c r="D1475" s="1" t="s">
-        <v>4473</v>
       </c>
       <c r="E1475" s="1" t="s">
         <v>48</v>
@@ -66363,13 +66363,13 @@
         <v>1475</v>
       </c>
       <c r="B1476" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C1476" s="1" t="s">
         <v>4474</v>
       </c>
-      <c r="C1476" s="1" t="s">
+      <c r="D1476" s="1" t="s">
         <v>4475</v>
-      </c>
-      <c r="D1476" s="1" t="s">
-        <v>4476</v>
       </c>
       <c r="E1476" s="1" t="s">
         <v>108</v>
@@ -66398,13 +66398,13 @@
         <v>1476</v>
       </c>
       <c r="B1477" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C1477" s="1" t="s">
         <v>4477</v>
       </c>
-      <c r="C1477" s="1" t="s">
+      <c r="D1477" s="1" t="s">
         <v>4478</v>
-      </c>
-      <c r="D1477" s="1" t="s">
-        <v>4479</v>
       </c>
       <c r="E1477" s="1" t="s">
         <v>53</v>
@@ -66433,13 +66433,13 @@
         <v>1477</v>
       </c>
       <c r="B1478" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C1478" s="1" t="s">
         <v>4480</v>
       </c>
-      <c r="C1478" s="1" t="s">
+      <c r="D1478" s="1" t="s">
         <v>4481</v>
-      </c>
-      <c r="D1478" s="1" t="s">
-        <v>4482</v>
       </c>
       <c r="E1478" s="1" t="s">
         <v>20</v>
@@ -66468,13 +66468,13 @@
         <v>1478</v>
       </c>
       <c r="B1479" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C1479" s="1" t="s">
         <v>4483</v>
       </c>
-      <c r="C1479" s="1" t="s">
+      <c r="D1479" s="1" t="s">
         <v>4484</v>
-      </c>
-      <c r="D1479" s="1" t="s">
-        <v>4485</v>
       </c>
       <c r="E1479" s="1" t="s">
         <v>20</v>
@@ -66503,13 +66503,13 @@
         <v>1479</v>
       </c>
       <c r="B1480" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C1480" s="1" t="s">
         <v>4486</v>
       </c>
-      <c r="C1480" s="1" t="s">
+      <c r="D1480" s="1" t="s">
         <v>4487</v>
-      </c>
-      <c r="D1480" s="1" t="s">
-        <v>4488</v>
       </c>
       <c r="E1480" s="1" t="s">
         <v>20</v>
@@ -66538,13 +66538,13 @@
         <v>1480</v>
       </c>
       <c r="B1481" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C1481" s="1" t="s">
         <v>4489</v>
       </c>
-      <c r="C1481" s="1" t="s">
+      <c r="D1481" s="1" t="s">
         <v>4490</v>
-      </c>
-      <c r="D1481" s="1" t="s">
-        <v>4491</v>
       </c>
       <c r="E1481" s="1" t="s">
         <v>20</v>
@@ -66573,13 +66573,13 @@
         <v>1481</v>
       </c>
       <c r="B1482" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C1482" s="1" t="s">
         <v>4492</v>
       </c>
-      <c r="C1482" s="1" t="s">
+      <c r="D1482" s="1" t="s">
         <v>4493</v>
-      </c>
-      <c r="D1482" s="1" t="s">
-        <v>4494</v>
       </c>
       <c r="E1482" s="1" t="s">
         <v>115</v>
@@ -66608,13 +66608,13 @@
         <v>1482</v>
       </c>
       <c r="B1483" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C1483" s="1" t="s">
         <v>4495</v>
       </c>
-      <c r="C1483" s="1" t="s">
+      <c r="D1483" s="1" t="s">
         <v>4496</v>
-      </c>
-      <c r="D1483" s="1" t="s">
-        <v>4497</v>
       </c>
       <c r="E1483" s="1" t="s">
         <v>1362</v>
@@ -66643,13 +66643,13 @@
         <v>1483</v>
       </c>
       <c r="B1484" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C1484" s="1" t="s">
         <v>4498</v>
       </c>
-      <c r="C1484" s="1" t="s">
+      <c r="D1484" s="1" t="s">
         <v>4499</v>
-      </c>
-      <c r="D1484" s="1" t="s">
-        <v>4500</v>
       </c>
       <c r="E1484" s="1" t="s">
         <v>32</v>
@@ -66678,13 +66678,13 @@
         <v>1484</v>
       </c>
       <c r="B1485" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C1485" s="1" t="s">
         <v>4501</v>
       </c>
-      <c r="C1485" s="1" t="s">
+      <c r="D1485" s="1" t="s">
         <v>4502</v>
-      </c>
-      <c r="D1485" s="1" t="s">
-        <v>4503</v>
       </c>
       <c r="E1485" s="1" t="s">
         <v>164</v>
@@ -66713,13 +66713,13 @@
         <v>1485</v>
       </c>
       <c r="B1486" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C1486" s="1" t="s">
         <v>4504</v>
       </c>
-      <c r="C1486" s="1" t="s">
+      <c r="D1486" s="1" t="s">
         <v>4505</v>
-      </c>
-      <c r="D1486" s="1" t="s">
-        <v>4506</v>
       </c>
       <c r="E1486" s="1" t="s">
         <v>20</v>
@@ -66748,13 +66748,13 @@
         <v>1486</v>
       </c>
       <c r="B1487" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C1487" s="1" t="s">
         <v>4507</v>
       </c>
-      <c r="C1487" s="1" t="s">
+      <c r="D1487" s="1" t="s">
         <v>4508</v>
-      </c>
-      <c r="D1487" s="1" t="s">
-        <v>4509</v>
       </c>
       <c r="E1487" s="1" t="s">
         <v>20</v>
@@ -66783,13 +66783,13 @@
         <v>1487</v>
       </c>
       <c r="B1488" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C1488" s="1" t="s">
         <v>4510</v>
       </c>
-      <c r="C1488" s="1" t="s">
+      <c r="D1488" s="1" t="s">
         <v>4511</v>
-      </c>
-      <c r="D1488" s="1" t="s">
-        <v>4512</v>
       </c>
       <c r="E1488" s="1" t="s">
         <v>20</v>
@@ -66818,13 +66818,13 @@
         <v>1488</v>
       </c>
       <c r="B1489" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C1489" s="1" t="s">
         <v>4513</v>
       </c>
-      <c r="C1489" s="1" t="s">
+      <c r="D1489" s="1" t="s">
         <v>4514</v>
-      </c>
-      <c r="D1489" s="1" t="s">
-        <v>4515</v>
       </c>
       <c r="E1489" s="1" t="s">
         <v>57</v>
@@ -66853,13 +66853,13 @@
         <v>1489</v>
       </c>
       <c r="B1490" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C1490" s="1" t="s">
         <v>4516</v>
       </c>
-      <c r="C1490" s="1" t="s">
+      <c r="D1490" s="1" t="s">
         <v>4517</v>
-      </c>
-      <c r="D1490" s="1" t="s">
-        <v>4518</v>
       </c>
       <c r="E1490" s="1" t="s">
         <v>20</v>
@@ -66888,13 +66888,13 @@
         <v>1490</v>
       </c>
       <c r="B1491" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C1491" s="1" t="s">
         <v>4519</v>
       </c>
-      <c r="C1491" s="1" t="s">
+      <c r="D1491" s="1" t="s">
         <v>4520</v>
-      </c>
-      <c r="D1491" s="1" t="s">
-        <v>4521</v>
       </c>
       <c r="E1491" s="1" t="s">
         <v>14</v>
@@ -66923,13 +66923,13 @@
         <v>1491</v>
       </c>
       <c r="B1492" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C1492" s="1" t="s">
         <v>4522</v>
       </c>
-      <c r="C1492" s="1" t="s">
+      <c r="D1492" s="1" t="s">
         <v>4523</v>
-      </c>
-      <c r="D1492" s="1" t="s">
-        <v>4524</v>
       </c>
       <c r="E1492" s="1" t="s">
         <v>20</v>
@@ -66958,13 +66958,13 @@
         <v>1492</v>
       </c>
       <c r="B1493" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C1493" s="1" t="s">
         <v>4525</v>
       </c>
-      <c r="C1493" s="1" t="s">
+      <c r="D1493" s="1" t="s">
         <v>4526</v>
-      </c>
-      <c r="D1493" s="1" t="s">
-        <v>4527</v>
       </c>
       <c r="E1493" s="1" t="s">
         <v>20</v>
@@ -66993,13 +66993,13 @@
         <v>1493</v>
       </c>
       <c r="B1494" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C1494" s="1" t="s">
         <v>4528</v>
       </c>
-      <c r="C1494" s="1" t="s">
+      <c r="D1494" s="1" t="s">
         <v>4529</v>
-      </c>
-      <c r="D1494" s="1" t="s">
-        <v>4530</v>
       </c>
       <c r="E1494" s="1" t="s">
         <v>92</v>
@@ -67028,13 +67028,13 @@
         <v>1494</v>
       </c>
       <c r="B1495" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C1495" s="1" t="s">
         <v>4531</v>
       </c>
-      <c r="C1495" s="1" t="s">
+      <c r="D1495" s="1" t="s">
         <v>4532</v>
-      </c>
-      <c r="D1495" s="1" t="s">
-        <v>4533</v>
       </c>
       <c r="E1495" s="1" t="s">
         <v>32</v>
@@ -67063,13 +67063,13 @@
         <v>1495</v>
       </c>
       <c r="B1496" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1496" s="1" t="s">
         <v>4534</v>
       </c>
-      <c r="C1496" s="1" t="s">
+      <c r="D1496" s="1" t="s">
         <v>4535</v>
-      </c>
-      <c r="D1496" s="1" t="s">
-        <v>4536</v>
       </c>
       <c r="E1496" s="1" t="s">
         <v>26</v>
@@ -67098,13 +67098,13 @@
         <v>1496</v>
       </c>
       <c r="B1497" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C1497" s="1" t="s">
         <v>4537</v>
       </c>
-      <c r="C1497" s="1" t="s">
+      <c r="D1497" s="1" t="s">
         <v>4538</v>
-      </c>
-      <c r="D1497" s="1" t="s">
-        <v>4539</v>
       </c>
       <c r="E1497" s="1" t="s">
         <v>115</v>
@@ -67133,13 +67133,13 @@
         <v>1497</v>
       </c>
       <c r="B1498" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C1498" s="1" t="s">
         <v>4540</v>
       </c>
-      <c r="C1498" s="1" t="s">
+      <c r="D1498" s="1" t="s">
         <v>4541</v>
-      </c>
-      <c r="D1498" s="1" t="s">
-        <v>4542</v>
       </c>
       <c r="E1498" s="1" t="s">
         <v>20</v>
@@ -67168,13 +67168,13 @@
         <v>1498</v>
       </c>
       <c r="B1499" s="1" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C1499" s="1" t="s">
         <v>4543</v>
       </c>
-      <c r="C1499" s="1" t="s">
+      <c r="D1499" s="1" t="s">
         <v>4544</v>
-      </c>
-      <c r="D1499" s="1" t="s">
-        <v>4545</v>
       </c>
       <c r="E1499" s="1" t="s">
         <v>32</v>
@@ -67203,13 +67203,13 @@
         <v>1499</v>
       </c>
       <c r="B1500" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C1500" s="1" t="s">
         <v>4546</v>
       </c>
-      <c r="C1500" s="1" t="s">
+      <c r="D1500" s="1" t="s">
         <v>4547</v>
-      </c>
-      <c r="D1500" s="1" t="s">
-        <v>4548</v>
       </c>
       <c r="E1500" s="1" t="s">
         <v>20</v>
@@ -67238,13 +67238,13 @@
         <v>1500</v>
       </c>
       <c r="B1501" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C1501" s="1" t="s">
         <v>4549</v>
       </c>
-      <c r="C1501" s="1" t="s">
+      <c r="D1501" s="1" t="s">
         <v>4550</v>
-      </c>
-      <c r="D1501" s="1" t="s">
-        <v>4551</v>
       </c>
       <c r="E1501" s="1" t="s">
         <v>43</v>
@@ -67273,13 +67273,13 @@
         <v>1501</v>
       </c>
       <c r="B1502" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C1502" s="1" t="s">
         <v>4552</v>
       </c>
-      <c r="C1502" s="1" t="s">
+      <c r="D1502" s="1" t="s">
         <v>4553</v>
-      </c>
-      <c r="D1502" s="1" t="s">
-        <v>4554</v>
       </c>
       <c r="E1502" s="1" t="s">
         <v>43</v>
@@ -67308,13 +67308,13 @@
         <v>1502</v>
       </c>
       <c r="B1503" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1503" s="1" t="s">
         <v>4555</v>
       </c>
-      <c r="C1503" s="1" t="s">
+      <c r="D1503" s="1" t="s">
         <v>4556</v>
-      </c>
-      <c r="D1503" s="1" t="s">
-        <v>4557</v>
       </c>
       <c r="E1503" s="1" t="s">
         <v>164</v>
@@ -67343,13 +67343,13 @@
         <v>1503</v>
       </c>
       <c r="B1504" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C1504" s="1" t="s">
         <v>4558</v>
       </c>
-      <c r="C1504" s="1" t="s">
+      <c r="D1504" s="1" t="s">
         <v>4559</v>
-      </c>
-      <c r="D1504" s="1" t="s">
-        <v>4560</v>
       </c>
       <c r="E1504" s="1" t="s">
         <v>14</v>
@@ -67378,13 +67378,13 @@
         <v>1504</v>
       </c>
       <c r="B1505" s="1" t="s">
+        <v>4560</v>
+      </c>
+      <c r="C1505" s="1" t="s">
         <v>4561</v>
       </c>
-      <c r="C1505" s="1" t="s">
+      <c r="D1505" s="1" t="s">
         <v>4562</v>
-      </c>
-      <c r="D1505" s="1" t="s">
-        <v>4563</v>
       </c>
       <c r="E1505" s="1" t="s">
         <v>32</v>
@@ -67413,13 +67413,13 @@
         <v>1505</v>
       </c>
       <c r="B1506" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C1506" s="1" t="s">
         <v>4564</v>
       </c>
-      <c r="C1506" s="1" t="s">
+      <c r="D1506" s="1" t="s">
         <v>4565</v>
-      </c>
-      <c r="D1506" s="1" t="s">
-        <v>4566</v>
       </c>
       <c r="E1506" s="1" t="s">
         <v>315</v>
@@ -67448,13 +67448,13 @@
         <v>1506</v>
       </c>
       <c r="B1507" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C1507" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="C1507" s="1" t="s">
+      <c r="D1507" s="1" t="s">
         <v>4568</v>
-      </c>
-      <c r="D1507" s="1" t="s">
-        <v>4569</v>
       </c>
       <c r="E1507" s="1" t="s">
         <v>20</v>
@@ -67483,13 +67483,13 @@
         <v>1507</v>
       </c>
       <c r="B1508" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C1508" s="1" t="s">
         <v>4570</v>
       </c>
-      <c r="C1508" s="1" t="s">
+      <c r="D1508" s="1" t="s">
         <v>4571</v>
-      </c>
-      <c r="D1508" s="1" t="s">
-        <v>4572</v>
       </c>
       <c r="E1508" s="1" t="s">
         <v>20</v>
@@ -67518,13 +67518,13 @@
         <v>1508</v>
       </c>
       <c r="B1509" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1509" s="1" t="s">
         <v>4573</v>
       </c>
-      <c r="C1509" s="1" t="s">
+      <c r="D1509" s="1" t="s">
         <v>4574</v>
-      </c>
-      <c r="D1509" s="1" t="s">
-        <v>4575</v>
       </c>
       <c r="E1509" s="1" t="s">
         <v>115</v>
@@ -67553,13 +67553,13 @@
         <v>1509</v>
       </c>
       <c r="B1510" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C1510" s="1" t="s">
         <v>4576</v>
       </c>
-      <c r="C1510" s="1" t="s">
+      <c r="D1510" s="1" t="s">
         <v>4577</v>
-      </c>
-      <c r="D1510" s="1" t="s">
-        <v>4578</v>
       </c>
       <c r="E1510" s="1" t="s">
         <v>781</v>
@@ -67588,13 +67588,13 @@
         <v>1510</v>
       </c>
       <c r="B1511" s="1" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C1511" s="1" t="s">
         <v>4579</v>
       </c>
-      <c r="C1511" s="1" t="s">
+      <c r="D1511" s="1" t="s">
         <v>4580</v>
-      </c>
-      <c r="D1511" s="1" t="s">
-        <v>4581</v>
       </c>
       <c r="E1511" s="1" t="s">
         <v>14</v>
@@ -67623,13 +67623,13 @@
         <v>1511</v>
       </c>
       <c r="B1512" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C1512" s="1" t="s">
         <v>4582</v>
       </c>
-      <c r="C1512" s="1" t="s">
+      <c r="D1512" s="1" t="s">
         <v>4583</v>
-      </c>
-      <c r="D1512" s="1" t="s">
-        <v>4584</v>
       </c>
       <c r="E1512" s="1" t="s">
         <v>32</v>
@@ -67658,13 +67658,13 @@
         <v>1512</v>
       </c>
       <c r="B1513" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C1513" s="1" t="s">
         <v>4585</v>
       </c>
-      <c r="C1513" s="1" t="s">
+      <c r="D1513" s="1" t="s">
         <v>4586</v>
-      </c>
-      <c r="D1513" s="1" t="s">
-        <v>4587</v>
       </c>
       <c r="E1513" s="1" t="s">
         <v>53</v>
@@ -67693,13 +67693,13 @@
         <v>1513</v>
       </c>
       <c r="B1514" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C1514" s="1" t="s">
         <v>4588</v>
       </c>
-      <c r="C1514" s="1" t="s">
+      <c r="D1514" s="1" t="s">
         <v>4589</v>
-      </c>
-      <c r="D1514" s="1" t="s">
-        <v>4590</v>
       </c>
       <c r="E1514" s="1" t="s">
         <v>32</v>
@@ -67728,13 +67728,13 @@
         <v>1514</v>
       </c>
       <c r="B1515" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="C1515" s="1" t="s">
         <v>4591</v>
       </c>
-      <c r="C1515" s="1" t="s">
+      <c r="D1515" s="1" t="s">
         <v>4592</v>
-      </c>
-      <c r="D1515" s="1" t="s">
-        <v>4593</v>
       </c>
       <c r="E1515" s="1" t="s">
         <v>32</v>
@@ -67763,13 +67763,13 @@
         <v>1515</v>
       </c>
       <c r="B1516" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="C1516" s="1" t="s">
         <v>4594</v>
       </c>
-      <c r="C1516" s="1" t="s">
+      <c r="D1516" s="1" t="s">
         <v>4595</v>
-      </c>
-      <c r="D1516" s="1" t="s">
-        <v>4596</v>
       </c>
       <c r="E1516" s="1" t="s">
         <v>115</v>
@@ -67798,13 +67798,13 @@
         <v>1516</v>
       </c>
       <c r="B1517" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C1517" s="1" t="s">
         <v>4597</v>
       </c>
-      <c r="C1517" s="1" t="s">
+      <c r="D1517" s="1" t="s">
         <v>4598</v>
-      </c>
-      <c r="D1517" s="1" t="s">
-        <v>4599</v>
       </c>
       <c r="E1517" s="1" t="s">
         <v>32</v>
@@ -67833,13 +67833,13 @@
         <v>1517</v>
       </c>
       <c r="B1518" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C1518" s="1" t="s">
         <v>4600</v>
       </c>
-      <c r="C1518" s="1" t="s">
+      <c r="D1518" s="1" t="s">
         <v>4601</v>
-      </c>
-      <c r="D1518" s="1" t="s">
-        <v>4602</v>
       </c>
       <c r="E1518" s="1" t="s">
         <v>14</v>
@@ -67868,13 +67868,13 @@
         <v>1518</v>
       </c>
       <c r="B1519" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C1519" s="1" t="s">
         <v>4603</v>
       </c>
-      <c r="C1519" s="1" t="s">
+      <c r="D1519" s="1" t="s">
         <v>4604</v>
-      </c>
-      <c r="D1519" s="1" t="s">
-        <v>4605</v>
       </c>
       <c r="E1519" s="1" t="s">
         <v>164</v>
@@ -67903,13 +67903,13 @@
         <v>1519</v>
       </c>
       <c r="B1520" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C1520" s="1" t="s">
         <v>4606</v>
       </c>
-      <c r="C1520" s="1" t="s">
+      <c r="D1520" s="1" t="s">
         <v>4607</v>
-      </c>
-      <c r="D1520" s="1" t="s">
-        <v>4608</v>
       </c>
       <c r="E1520" s="1" t="s">
         <v>43</v>
@@ -67938,13 +67938,13 @@
         <v>1520</v>
       </c>
       <c r="B1521" s="1" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C1521" s="1" t="s">
         <v>4609</v>
       </c>
-      <c r="C1521" s="1" t="s">
+      <c r="D1521" s="1" t="s">
         <v>4610</v>
-      </c>
-      <c r="D1521" s="1" t="s">
-        <v>4611</v>
       </c>
       <c r="E1521" s="1" t="s">
         <v>115</v>
@@ -67973,13 +67973,13 @@
         <v>1521</v>
       </c>
       <c r="B1522" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C1522" s="1" t="s">
         <v>4612</v>
       </c>
-      <c r="C1522" s="1" t="s">
+      <c r="D1522" s="1" t="s">
         <v>4613</v>
-      </c>
-      <c r="D1522" s="1" t="s">
-        <v>4614</v>
       </c>
       <c r="E1522" s="1" t="s">
         <v>32</v>
@@ -68008,13 +68008,13 @@
         <v>1522</v>
       </c>
       <c r="B1523" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1523" s="1" t="s">
         <v>4615</v>
       </c>
-      <c r="C1523" s="1" t="s">
+      <c r="D1523" s="1" t="s">
         <v>4616</v>
-      </c>
-      <c r="D1523" s="1" t="s">
-        <v>4617</v>
       </c>
       <c r="E1523" s="1" t="s">
         <v>43</v>
@@ -68043,13 +68043,13 @@
         <v>1523</v>
       </c>
       <c r="B1524" s="1" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C1524" s="1" t="s">
         <v>4618</v>
       </c>
-      <c r="C1524" s="1" t="s">
+      <c r="D1524" s="1" t="s">
         <v>4619</v>
-      </c>
-      <c r="D1524" s="1" t="s">
-        <v>4620</v>
       </c>
       <c r="E1524" s="1" t="s">
         <v>20</v>
@@ -68078,13 +68078,13 @@
         <v>1524</v>
       </c>
       <c r="B1525" s="1" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C1525" s="1" t="s">
         <v>4621</v>
       </c>
-      <c r="C1525" s="1" t="s">
+      <c r="D1525" s="1" t="s">
         <v>4622</v>
-      </c>
-      <c r="D1525" s="1" t="s">
-        <v>4623</v>
       </c>
       <c r="E1525" s="1" t="s">
         <v>26</v>
@@ -68113,13 +68113,13 @@
         <v>1525</v>
       </c>
       <c r="B1526" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C1526" s="1" t="s">
         <v>4624</v>
       </c>
-      <c r="C1526" s="1" t="s">
+      <c r="D1526" s="1" t="s">
         <v>4625</v>
-      </c>
-      <c r="D1526" s="1" t="s">
-        <v>4626</v>
       </c>
       <c r="E1526" s="1" t="s">
         <v>26</v>
@@ -68148,13 +68148,13 @@
         <v>1526</v>
       </c>
       <c r="B1527" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="C1527" s="1" t="s">
         <v>4627</v>
       </c>
-      <c r="C1527" s="1" t="s">
+      <c r="D1527" s="1" t="s">
         <v>4628</v>
-      </c>
-      <c r="D1527" s="1" t="s">
-        <v>4629</v>
       </c>
       <c r="E1527" s="1" t="s">
         <v>26</v>
@@ -68183,13 +68183,13 @@
         <v>1527</v>
       </c>
       <c r="B1528" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C1528" s="1" t="s">
         <v>4630</v>
       </c>
-      <c r="C1528" s="1" t="s">
+      <c r="D1528" s="1" t="s">
         <v>4631</v>
-      </c>
-      <c r="D1528" s="1" t="s">
-        <v>4632</v>
       </c>
       <c r="E1528" s="1" t="s">
         <v>26</v>
@@ -68218,13 +68218,13 @@
         <v>1528</v>
       </c>
       <c r="B1529" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C1529" s="1" t="s">
         <v>4633</v>
       </c>
-      <c r="C1529" s="1" t="s">
+      <c r="D1529" s="1" t="s">
         <v>4634</v>
-      </c>
-      <c r="D1529" s="1" t="s">
-        <v>4635</v>
       </c>
       <c r="E1529" s="1" t="s">
         <v>26</v>
@@ -68253,13 +68253,13 @@
         <v>1529</v>
       </c>
       <c r="B1530" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="C1530" s="1" t="s">
         <v>4636</v>
       </c>
-      <c r="C1530" s="1" t="s">
+      <c r="D1530" s="1" t="s">
         <v>4637</v>
-      </c>
-      <c r="D1530" s="1" t="s">
-        <v>4638</v>
       </c>
       <c r="E1530" s="1" t="s">
         <v>26</v>
@@ -68288,13 +68288,13 @@
         <v>1530</v>
       </c>
       <c r="B1531" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C1531" s="1" t="s">
         <v>4639</v>
       </c>
-      <c r="C1531" s="1" t="s">
+      <c r="D1531" s="1" t="s">
         <v>4640</v>
-      </c>
-      <c r="D1531" s="1" t="s">
-        <v>4641</v>
       </c>
       <c r="E1531" s="1" t="s">
         <v>26</v>
@@ -68323,13 +68323,13 @@
         <v>1531</v>
       </c>
       <c r="B1532" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C1532" s="1" t="s">
         <v>4642</v>
       </c>
-      <c r="C1532" s="1" t="s">
+      <c r="D1532" s="1" t="s">
         <v>4643</v>
-      </c>
-      <c r="D1532" s="1" t="s">
-        <v>4644</v>
       </c>
       <c r="E1532" s="1" t="s">
         <v>200</v>
@@ -68358,13 +68358,13 @@
         <v>1532</v>
       </c>
       <c r="B1533" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="C1533" s="1" t="s">
         <v>4645</v>
       </c>
-      <c r="C1533" s="1" t="s">
+      <c r="D1533" s="1" t="s">
         <v>4646</v>
-      </c>
-      <c r="D1533" s="1" t="s">
-        <v>4647</v>
       </c>
       <c r="E1533" s="1" t="s">
         <v>26</v>
@@ -68393,13 +68393,13 @@
         <v>1533</v>
       </c>
       <c r="B1534" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C1534" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="C1534" s="1" t="s">
+      <c r="D1534" s="1" t="s">
         <v>4649</v>
-      </c>
-      <c r="D1534" s="1" t="s">
-        <v>4650</v>
       </c>
       <c r="E1534" s="1" t="s">
         <v>26</v>
@@ -68428,13 +68428,13 @@
         <v>1534</v>
       </c>
       <c r="B1535" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C1535" s="1" t="s">
         <v>4651</v>
       </c>
-      <c r="C1535" s="1" t="s">
+      <c r="D1535" s="1" t="s">
         <v>4652</v>
-      </c>
-      <c r="D1535" s="1" t="s">
-        <v>4653</v>
       </c>
       <c r="E1535" s="1" t="s">
         <v>26</v>
@@ -68463,13 +68463,13 @@
         <v>1535</v>
       </c>
       <c r="B1536" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C1536" s="1" t="s">
         <v>4654</v>
       </c>
-      <c r="C1536" s="1" t="s">
+      <c r="D1536" s="1" t="s">
         <v>4655</v>
-      </c>
-      <c r="D1536" s="1" t="s">
-        <v>4656</v>
       </c>
       <c r="E1536" s="1" t="s">
         <v>20</v>
@@ -68498,13 +68498,13 @@
         <v>1536</v>
       </c>
       <c r="B1537" s="1" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C1537" s="1" t="s">
         <v>4657</v>
       </c>
-      <c r="C1537" s="1" t="s">
+      <c r="D1537" s="1" t="s">
         <v>4658</v>
-      </c>
-      <c r="D1537" s="1" t="s">
-        <v>4659</v>
       </c>
       <c r="E1537" s="1" t="s">
         <v>20</v>
@@ -68533,13 +68533,13 @@
         <v>1537</v>
       </c>
       <c r="B1538" s="1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C1538" s="1" t="s">
         <v>4660</v>
       </c>
-      <c r="C1538" s="1" t="s">
+      <c r="D1538" s="1" t="s">
         <v>4661</v>
-      </c>
-      <c r="D1538" s="1" t="s">
-        <v>4662</v>
       </c>
       <c r="E1538" s="1" t="s">
         <v>108</v>
@@ -68568,13 +68568,13 @@
         <v>1538</v>
       </c>
       <c r="B1539" s="1" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C1539" s="1" t="s">
         <v>4663</v>
       </c>
-      <c r="C1539" s="1" t="s">
+      <c r="D1539" s="1" t="s">
         <v>4664</v>
-      </c>
-      <c r="D1539" s="1" t="s">
-        <v>4665</v>
       </c>
       <c r="E1539" s="1" t="s">
         <v>232</v>
@@ -68603,13 +68603,13 @@
         <v>1539</v>
       </c>
       <c r="B1540" s="1" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C1540" s="1" t="s">
         <v>4666</v>
       </c>
-      <c r="C1540" s="1" t="s">
+      <c r="D1540" s="1" t="s">
         <v>4667</v>
-      </c>
-      <c r="D1540" s="1" t="s">
-        <v>4668</v>
       </c>
       <c r="E1540" s="1" t="s">
         <v>26</v>
@@ -68638,13 +68638,13 @@
         <v>1540</v>
       </c>
       <c r="B1541" s="1" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C1541" s="1" t="s">
         <v>4669</v>
       </c>
-      <c r="C1541" s="1" t="s">
+      <c r="D1541" s="1" t="s">
         <v>4670</v>
-      </c>
-      <c r="D1541" s="1" t="s">
-        <v>4671</v>
       </c>
       <c r="E1541" s="1" t="s">
         <v>20</v>
@@ -68673,13 +68673,13 @@
         <v>1541</v>
       </c>
       <c r="B1542" s="1" t="s">
+        <v>4671</v>
+      </c>
+      <c r="C1542" s="1" t="s">
         <v>4672</v>
       </c>
-      <c r="C1542" s="1" t="s">
+      <c r="D1542" s="1" t="s">
         <v>4673</v>
-      </c>
-      <c r="D1542" s="1" t="s">
-        <v>4674</v>
       </c>
       <c r="E1542" s="1" t="s">
         <v>20</v>
@@ -68708,13 +68708,13 @@
         <v>1542</v>
       </c>
       <c r="B1543" s="1" t="s">
+        <v>4674</v>
+      </c>
+      <c r="C1543" s="1" t="s">
         <v>4675</v>
       </c>
-      <c r="C1543" s="1" t="s">
+      <c r="D1543" s="1" t="s">
         <v>4676</v>
-      </c>
-      <c r="D1543" s="1" t="s">
-        <v>4677</v>
       </c>
       <c r="E1543" s="1" t="s">
         <v>115</v>
@@ -68743,13 +68743,13 @@
         <v>1543</v>
       </c>
       <c r="B1544" s="1" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C1544" s="1" t="s">
         <v>4678</v>
       </c>
-      <c r="C1544" s="1" t="s">
+      <c r="D1544" s="1" t="s">
         <v>4679</v>
-      </c>
-      <c r="D1544" s="1" t="s">
-        <v>4680</v>
       </c>
       <c r="E1544" s="1" t="s">
         <v>26</v>
@@ -68778,13 +68778,13 @@
         <v>1544</v>
       </c>
       <c r="B1545" s="1" t="s">
+        <v>4680</v>
+      </c>
+      <c r="C1545" s="1" t="s">
         <v>4681</v>
       </c>
-      <c r="C1545" s="1" t="s">
+      <c r="D1545" s="1" t="s">
         <v>4682</v>
-      </c>
-      <c r="D1545" s="1" t="s">
-        <v>4683</v>
       </c>
       <c r="E1545" s="1" t="s">
         <v>115</v>
@@ -68813,13 +68813,13 @@
         <v>1545</v>
       </c>
       <c r="B1546" s="1" t="s">
+        <v>4683</v>
+      </c>
+      <c r="C1546" s="1" t="s">
         <v>4684</v>
       </c>
-      <c r="C1546" s="1" t="s">
+      <c r="D1546" s="1" t="s">
         <v>4685</v>
-      </c>
-      <c r="D1546" s="1" t="s">
-        <v>4686</v>
       </c>
       <c r="E1546" s="1" t="s">
         <v>43</v>
@@ -68848,13 +68848,13 @@
         <v>1546</v>
       </c>
       <c r="B1547" s="1" t="s">
+        <v>4686</v>
+      </c>
+      <c r="C1547" s="1" t="s">
         <v>4687</v>
       </c>
-      <c r="C1547" s="1" t="s">
+      <c r="D1547" s="1" t="s">
         <v>4688</v>
-      </c>
-      <c r="D1547" s="1" t="s">
-        <v>4689</v>
       </c>
       <c r="E1547" s="1" t="s">
         <v>64</v>

--- a/GUI + Reviews/202504/Developed Market.xlsx
+++ b/GUI + Reviews/202504/Developed Market.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FF0EBC4F-87FA-4880-ABDF-10E9D1B9D9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE207F1-2057-4C7B-B5C8-B650127E33B1}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15840" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14714,8 +14714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBDFA6-8ACF-46B1-986C-8B78F48A2240}">
   <dimension ref="A1:K1547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1101" workbookViewId="0">
-      <selection activeCell="G1120" sqref="G1120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/GUI + Reviews/202504/Developed Market.xlsx
+++ b/GUI + Reviews/202504/Developed Market.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FF0EBC4F-87FA-4880-ABDF-10E9D1B9D9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE207F1-2057-4C7B-B5C8-B650127E33B1}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15840" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14715,7 +14715,7 @@
   <dimension ref="A1:K1547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
